--- a/other documentation/report_rezultatov_v1.xlsx
+++ b/other documentation/report_rezultatov_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/r.grilj/Documents/GitHub/BMA_roma_MAG/other documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1329AE3-9AAA-C746-95CC-CA4F122A6D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F439DE91-DF1F-D94D-BDEB-5E9BC3B52117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="1060" windowWidth="34560" windowHeight="20360" activeTab="6" xr2:uid="{7C5033A3-0CD7-46B1-9957-C1698C274436}"/>
+    <workbookView xWindow="20" yWindow="760" windowWidth="34560" windowHeight="20360" activeTab="6" xr2:uid="{7C5033A3-0CD7-46B1-9957-C1698C274436}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="24">
   <si>
     <t>Sentiment Analaysis</t>
   </si>
@@ -98,6 +98,21 @@
   <si>
     <t>SENTIMENT</t>
   </si>
+  <si>
+    <t>AWS  SageMaker</t>
+  </si>
+  <si>
+    <t>Rezultati članka</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Azure  Services</t>
+  </si>
 </sst>
 </file>
 
@@ -149,7 +164,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -494,12 +509,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -614,6 +642,22 @@
     <xf numFmtId="164" fontId="2" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1221,11 +1265,11 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>NER!$E$3:$H$3</c:f>
+              <c:f>NER!$E$3:$I$3</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>AWS Amazon SageMaker</c:v>
+                  <c:v>AWS  SageMaker</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Transformers</c:v>
@@ -1234,6 +1278,9 @@
                   <c:v>Google Vertex AI</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>Rezultati članka</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Azure Cognitive Services</c:v>
                 </c:pt>
               </c:strCache>
@@ -1241,10 +1288,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>NER!$E$6:$H$6</c:f>
+              <c:f>NER!$E$6:$I$6</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.95753452039058018</c:v>
                 </c:pt>
@@ -1254,7 +1301,10 @@
                 <c:pt idx="2">
                   <c:v>0.9194997281131051</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="General">
+                  <c:v>0.91600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.84045627973358705</c:v>
                 </c:pt>
               </c:numCache>
@@ -1627,9 +1677,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>sentiment!$E$30:$H$30</c:f>
+              <c:f>sentiment!$E$30:$I$30</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Google Vertex AI</c:v>
                 </c:pt>
@@ -1637,20 +1687,23 @@
                   <c:v>Transformers</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>AWS Amazon SageMaker</c:v>
+                  <c:v>AWS  SageMaker</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Azure Cognitive Services</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Rezultati članka</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>sentiment!$E$33:$H$33</c:f>
+              <c:f>sentiment!$E$33:$I$33</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.93</c:v>
                 </c:pt>
@@ -1662,6 +1715,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.876</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.78159509202453992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2028,19 +2084,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>summarization!$E$30:$H$30</c:f>
+              <c:f>(summarization!$E$30,summarization!$F$30:$I$30)</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>Rezultati članka</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Azure Cognitive Services</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Google Vertex AI</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>AWS Amazon SageMaker</c:v>
+                <c:pt idx="3">
+                  <c:v>AWS  SageMaker</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Transformers</c:v>
                 </c:pt>
               </c:strCache>
@@ -2048,20 +2107,23 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>summarization!$E$33:$H$33</c:f>
+              <c:f>(summarization!$E$33,summarization!$F$33:$I$33)</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0.39200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.33034000000000002</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.30599999999999999</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.20100000000000001</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.192</c:v>
                 </c:pt>
               </c:numCache>
@@ -2171,7 +2233,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2429,9 +2491,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'key pharses'!$E$30:$H$30</c:f>
+              <c:f>'key pharses'!$E$30:$I$30</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Azure Cognitive Services</c:v>
                 </c:pt>
@@ -2439,9 +2501,12 @@
                   <c:v>Google Vertex AI</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>AWS Amazon SageMaker</c:v>
+                  <c:v>AWS  SageMaker</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>Rezultati članka</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Transformers</c:v>
                 </c:pt>
               </c:strCache>
@@ -2449,10 +2514,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'key pharses'!$E$33:$H$33</c:f>
+              <c:f>'key pharses'!$E$33:$I$33</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.59199999999999997</c:v>
                 </c:pt>
@@ -2463,6 +2528,9 @@
                   <c:v>0.56200000000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.52800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.51900000000000002</c:v>
                 </c:pt>
               </c:numCache>
@@ -2830,9 +2898,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'text classification'!$E$30:$H$30</c:f>
+              <c:f>('text classification'!$F$30:$I$30,'text classification'!$J$30)</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Transformers</c:v>
                 </c:pt>
@@ -2843,17 +2911,20 @@
                   <c:v>Azure Cognitive Services</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>AWS Amazon SageMaker</c:v>
+                  <c:v>AWS  SageMaker</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Rezultati članka</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'text classification'!$E$33:$H$33</c:f>
+              <c:f>('text classification'!$F$33:$I$33,'text classification'!$J$33)</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.92800000000000005</c:v>
                 </c:pt>
@@ -2865,6 +2936,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.80800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.73499999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3244,7 +3318,7 @@
                   <c:v>Google Vertex AI</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Azure Cognitive Services</c:v>
+                  <c:v>Azure  Services</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Transformers</c:v>
@@ -7954,16 +8028,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7996,15 +8070,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8036,16 +8110,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8079,16 +8153,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8122,16 +8196,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1397000</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8165,16 +8239,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8880,10 +8954,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A4C076D-01EB-3B4E-ADA1-A3FE857A6226}">
-  <dimension ref="C2:O22"/>
+  <dimension ref="C2:P22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K45" sqref="K45"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8892,15 +8966,15 @@
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" customWidth="1"/>
-    <col min="8" max="8" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="20.6640625" customWidth="1"/>
+    <col min="9" max="10" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E3" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>4</v>
@@ -8908,11 +8982,17 @@
       <c r="G3" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C4" s="54" t="s">
         <v>5</v>
       </c>
@@ -8928,11 +9008,17 @@
       <c r="G4" s="8">
         <v>0.92</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="66">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="I4" s="11">
         <v>0.85780000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="J4" s="66">
+        <v>0.91800000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C5" s="55"/>
       <c r="D5" s="33" t="s">
         <v>13</v>
@@ -8946,11 +9032,17 @@
       <c r="G5" s="10">
         <v>0.91900000000000004</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="66">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="I5" s="12">
         <v>0.82379999999999998</v>
       </c>
-    </row>
-    <row r="6" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J5" s="66">
+        <v>0.91300000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C6" s="56"/>
       <c r="D6" s="2" t="s">
         <v>7</v>
@@ -8967,15 +9059,21 @@
         <f>(2*G4*G5)/(G4+G5)</f>
         <v>0.9194997281131051</v>
       </c>
-      <c r="H6" s="41">
-        <f>(2*H4*H5)/(H4+H5)</f>
+      <c r="H6">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="I6" s="41">
+        <f>(2*I4*I5)/(I4+I5)</f>
         <v>0.84045627973358705</v>
       </c>
-      <c r="K6">
+      <c r="J6">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="L6">
         <v>0.95099999999999996</v>
       </c>
     </row>
-    <row r="7" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C7" s="57" t="s">
         <v>0</v>
       </c>
@@ -8991,11 +9089,12 @@
       <c r="G7" s="42">
         <v>0.86219999999999997</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="42"/>
+      <c r="I7" s="11">
         <v>0.86229999999999996</v>
       </c>
     </row>
-    <row r="8" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C8" s="58"/>
       <c r="D8" s="33" t="s">
         <v>13</v>
@@ -9009,15 +9108,16 @@
       <c r="G8" s="43">
         <v>0.89119999999999999</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="43"/>
+      <c r="I8" s="12">
         <v>0.89129999999999998</v>
       </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M8" s="4"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C9" s="59"/>
       <c r="D9" s="6" t="s">
         <v>7</v>
@@ -9033,12 +9133,13 @@
         <f t="shared" si="0"/>
         <v>0.87646018022128425</v>
       </c>
-      <c r="H9" s="13">
-        <f>(2*H7*H8)/(H7+H8)</f>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13">
+        <f>(2*I7*I8)/(I7+I8)</f>
         <v>0.87656020757299269</v>
       </c>
     </row>
-    <row r="10" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C10" s="57" t="s">
         <v>1</v>
       </c>
@@ -9054,11 +9155,12 @@
       <c r="G10" s="11">
         <v>0.22600000000000001</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="11"/>
+      <c r="I10" s="11">
         <v>0.42620999999999998</v>
       </c>
     </row>
-    <row r="11" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C11" s="58"/>
       <c r="D11" s="5" t="s">
         <v>6</v>
@@ -9072,11 +9174,12 @@
       <c r="G11" s="44">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="44"/>
+      <c r="I11" s="12">
         <v>0.21983</v>
       </c>
     </row>
-    <row r="12" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C12" s="59"/>
       <c r="D12" s="6" t="s">
         <v>9</v>
@@ -9090,11 +9193,12 @@
       <c r="G12" s="41">
         <v>0.20100000000000001</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="41"/>
+      <c r="I12" s="14">
         <v>0.33034000000000002</v>
       </c>
     </row>
-    <row r="13" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C13" s="57" t="s">
         <v>11</v>
       </c>
@@ -9110,11 +9214,12 @@
       <c r="G13" s="45">
         <v>0.51300000000000001</v>
       </c>
-      <c r="H13" s="46">
+      <c r="H13" s="45"/>
+      <c r="I13" s="46">
         <v>0.53</v>
       </c>
     </row>
-    <row r="14" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C14" s="58"/>
       <c r="D14" s="33" t="s">
         <v>13</v>
@@ -9128,11 +9233,12 @@
       <c r="G14" s="47">
         <v>0.622</v>
       </c>
-      <c r="H14" s="48">
+      <c r="H14" s="47"/>
+      <c r="I14" s="48">
         <v>0.67</v>
       </c>
     </row>
-    <row r="15" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C15" s="59"/>
       <c r="D15" s="6" t="s">
         <v>7</v>
@@ -9149,12 +9255,13 @@
         <f t="shared" si="1"/>
         <v>0.56226607929515415</v>
       </c>
-      <c r="H15" s="23">
-        <f>(2*H13*H14)/(H13+H14)</f>
+      <c r="H15" s="22"/>
+      <c r="I15" s="23">
+        <f>(2*I13*I14)/(I13+I14)</f>
         <v>0.59183333333333332</v>
       </c>
     </row>
-    <row r="16" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C16" s="57" t="s">
         <v>3</v>
       </c>
@@ -9170,11 +9277,12 @@
       <c r="G16" s="49">
         <v>0.85760000000000003</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="49"/>
+      <c r="I16" s="11">
         <v>0.88</v>
       </c>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C17" s="58"/>
       <c r="D17" s="33" t="s">
         <v>13</v>
@@ -9188,11 +9296,12 @@
       <c r="G17" s="50">
         <v>0.76290000000000002</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="50"/>
+      <c r="I17" s="12">
         <v>0.92</v>
       </c>
     </row>
-    <row r="18" spans="3:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C18" s="59"/>
       <c r="D18" s="6" t="s">
         <v>7</v>
@@ -9202,19 +9311,20 @@
         <v>0.92774669900296414</v>
       </c>
       <c r="F18" s="14">
-        <f t="shared" ref="F18:H18" si="2">(2*F16*F17)/(F16+F17)</f>
+        <f t="shared" ref="F18:I18" si="2">(2*F16*F17)/(F16+F17)</f>
         <v>0.90701924134139633</v>
       </c>
       <c r="G18" s="51">
         <f t="shared" si="2"/>
         <v>0.80748292502314101</v>
       </c>
-      <c r="H18" s="41">
+      <c r="H18" s="51"/>
+      <c r="I18" s="41">
         <f t="shared" si="2"/>
         <v>0.89955555555555555</v>
       </c>
     </row>
-    <row r="19" spans="3:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
         <v>2</v>
       </c>
@@ -9230,17 +9340,18 @@
       <c r="G19" s="52">
         <v>0.98</v>
       </c>
-      <c r="H19" s="53">
+      <c r="H19" s="52"/>
+      <c r="I19" s="53">
         <v>0.96479999999999999</v>
       </c>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D20" s="37"/>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D21" s="37"/>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D22" s="37"/>
     </row>
   </sheetData>
@@ -9261,8 +9372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C728D34D-020E-874B-8253-7130140C0DEA}">
   <dimension ref="C2:O33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9273,6 +9384,7 @@
     <col min="6" max="6" width="15.5" customWidth="1"/>
     <col min="7" max="7" width="20.6640625" customWidth="1"/>
     <col min="8" max="8" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9556,7 +9668,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C17" s="58"/>
       <c r="D17" s="33" t="s">
         <v>13</v>
@@ -9574,7 +9686,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="18" spans="3:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C18" s="59"/>
       <c r="D18" s="6" t="s">
         <v>7</v>
@@ -9596,7 +9708,7 @@
         <v>0.89955555555555555</v>
       </c>
     </row>
-    <row r="19" spans="3:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
         <v>2</v>
       </c>
@@ -9616,17 +9728,17 @@
         <v>0.96479999999999999</v>
       </c>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D20" s="37"/>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D21" s="37"/>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D22" s="37"/>
     </row>
-    <row r="23" spans="3:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="3:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:9" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="3:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E24" s="7" t="s">
         <v>15</v>
       </c>
@@ -9640,7 +9752,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C25" s="54" t="s">
         <v>18</v>
       </c>
@@ -9660,7 +9772,7 @@
         <v>0.85780000000000001</v>
       </c>
     </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C26" s="55"/>
       <c r="D26" s="33" t="s">
         <v>13</v>
@@ -9678,7 +9790,7 @@
         <v>0.82379999999999998</v>
       </c>
     </row>
-    <row r="27" spans="3:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C27" s="56"/>
       <c r="D27" s="2" t="s">
         <v>7</v>
@@ -9696,8 +9808,8 @@
         <v>0.876</v>
       </c>
     </row>
-    <row r="29" spans="3:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="3:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:9" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="3:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E30" s="34" t="s">
         <v>14</v>
       </c>
@@ -9705,13 +9817,16 @@
         <v>4</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="I30" s="68" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C31" s="54" t="s">
         <v>18</v>
       </c>
@@ -9730,8 +9845,11 @@
       <c r="H31" s="11">
         <v>0.85780000000000001</v>
       </c>
-    </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="I31" s="66">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C32" s="55"/>
       <c r="D32" s="33" t="s">
         <v>13</v>
@@ -9748,8 +9866,11 @@
       <c r="H32" s="12">
         <v>0.82379999999999998</v>
       </c>
-    </row>
-    <row r="33" spans="3:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I32" s="66">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C33" s="56"/>
       <c r="D33" s="2" t="s">
         <v>7</v>
@@ -9765,6 +9886,10 @@
       </c>
       <c r="H33" s="41">
         <v>0.876</v>
+      </c>
+      <c r="I33" s="51">
+        <f>(2*I31*I32)/(I31+I32)</f>
+        <v>0.78159509202453992</v>
       </c>
     </row>
   </sheetData>
@@ -9785,512 +9910,548 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDEDEE5A-78D2-1840-A86D-1802D2EB04C7}">
-  <dimension ref="C2:O33"/>
+  <dimension ref="C2:P33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" customWidth="1"/>
-    <col min="8" max="8" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" customWidth="1"/>
+    <col min="9" max="9" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="7" t="s">
+    <row r="2" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="H3" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C4" s="54" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="38">
+      <c r="E4" s="69"/>
+      <c r="F4" s="38">
         <v>0.95369999999999999</v>
       </c>
-      <c r="F4" s="12">
+      <c r="G4" s="12">
         <v>0.92300000000000004</v>
       </c>
-      <c r="G4" s="8">
+      <c r="H4" s="8">
         <v>0.92</v>
       </c>
-      <c r="H4" s="11">
+      <c r="I4" s="11">
         <v>0.85780000000000001</v>
       </c>
     </row>
-    <row r="5" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C5" s="55"/>
       <c r="D5" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="39">
+      <c r="E5" s="70"/>
+      <c r="F5" s="39">
         <v>0.96140000000000003</v>
       </c>
-      <c r="F5" s="12">
+      <c r="G5" s="12">
         <v>0.91900000000000004</v>
       </c>
-      <c r="G5" s="10">
+      <c r="H5" s="10">
         <v>0.91900000000000004</v>
       </c>
-      <c r="H5" s="12">
+      <c r="I5" s="12">
         <v>0.82379999999999998</v>
       </c>
     </row>
-    <row r="6" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C6" s="56"/>
       <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="40">
-        <f>(2*E4*E5)/(E4+E5)</f>
+      <c r="E6" s="71"/>
+      <c r="F6" s="40">
+        <f>(2*F4*F5)/(F4+F5)</f>
         <v>0.95753452039058018</v>
       </c>
-      <c r="F6" s="14">
-        <f>(2*F4*F5)/(F4+F5)</f>
+      <c r="G6" s="14">
+        <f>(2*G4*G5)/(G4+G5)</f>
         <v>0.92099565689467977</v>
       </c>
-      <c r="G6" s="35">
-        <f>(2*G4*G5)/(G4+G5)</f>
+      <c r="H6" s="35">
+        <f>(2*H4*H5)/(H4+H5)</f>
         <v>0.9194997281131051</v>
       </c>
-      <c r="H6" s="41">
-        <f>(2*H4*H5)/(H4+H5)</f>
+      <c r="I6" s="41">
+        <f>(2*I4*I5)/(I4+I5)</f>
         <v>0.84045627973358705</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>0.95099999999999996</v>
       </c>
     </row>
-    <row r="7" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C7" s="57" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="72"/>
+      <c r="F7" s="36">
         <v>0.92800000000000005</v>
       </c>
-      <c r="F7" s="31">
+      <c r="G7" s="31">
         <v>0.92400000000000004</v>
       </c>
-      <c r="G7" s="42">
+      <c r="H7" s="42">
         <v>0.86219999999999997</v>
       </c>
-      <c r="H7" s="11">
+      <c r="I7" s="11">
         <v>0.86229999999999996</v>
       </c>
     </row>
-    <row r="8" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C8" s="58"/>
       <c r="D8" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="33"/>
+      <c r="F8" s="20">
         <v>0.92900000000000005</v>
       </c>
-      <c r="F8" s="9">
+      <c r="G8" s="9">
         <v>0.92400000000000004</v>
       </c>
-      <c r="G8" s="43">
+      <c r="H8" s="43">
         <v>0.89119999999999999</v>
       </c>
-      <c r="H8" s="12">
+      <c r="I8" s="12">
         <v>0.89129999999999998</v>
       </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M8" s="4"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C9" s="59"/>
       <c r="D9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="73"/>
+      <c r="F9" s="20">
         <v>0.92900000000000005</v>
       </c>
-      <c r="F9" s="23">
-        <f t="shared" ref="F9:G9" si="0">(2*F7*F8)/(F7+F8)</f>
+      <c r="G9" s="23">
+        <f t="shared" ref="G9:H9" si="0">(2*G7*G8)/(G7+G8)</f>
         <v>0.92400000000000004</v>
       </c>
-      <c r="G9" s="13">
+      <c r="H9" s="13">
         <f t="shared" si="0"/>
         <v>0.87646018022128425</v>
       </c>
-      <c r="H9" s="13">
-        <f>(2*H7*H8)/(H7+H8)</f>
+      <c r="I9" s="13">
+        <f>(2*I7*I8)/(I7+I8)</f>
         <v>0.87656020757299269</v>
       </c>
     </row>
-    <row r="10" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C10" s="57" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="4"/>
+      <c r="F10" s="29">
         <v>0.20899999999999999</v>
       </c>
-      <c r="F10" s="15">
+      <c r="G10" s="15">
         <v>0.42948999999999998</v>
       </c>
-      <c r="G10" s="11">
+      <c r="H10" s="11">
         <v>0.22600000000000001</v>
       </c>
-      <c r="H10" s="11">
+      <c r="I10" s="11">
         <v>0.42620999999999998</v>
       </c>
     </row>
-    <row r="11" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C11" s="58"/>
       <c r="D11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E11" s="5"/>
+      <c r="F11" s="30">
         <v>0.19</v>
       </c>
-      <c r="F11" s="16">
+      <c r="G11" s="16">
         <v>0.20815</v>
       </c>
-      <c r="G11" s="44">
+      <c r="H11" s="44">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="H11" s="12">
+      <c r="I11" s="12">
         <v>0.21983</v>
       </c>
     </row>
-    <row r="12" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C12" s="59"/>
       <c r="D12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="6"/>
+      <c r="F12" s="22">
         <v>0.1918</v>
       </c>
-      <c r="F12" s="17">
+      <c r="G12" s="17">
         <v>0.30619000000000002</v>
       </c>
-      <c r="G12" s="41">
+      <c r="H12" s="41">
         <v>0.20100000000000001</v>
       </c>
-      <c r="H12" s="14">
+      <c r="I12" s="14">
         <v>0.33034000000000002</v>
       </c>
     </row>
-    <row r="13" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C13" s="57" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="32"/>
+      <c r="F13" s="19">
         <v>0.47470000000000001</v>
       </c>
-      <c r="F13" s="11">
+      <c r="G13" s="11">
         <v>0.63700000000000001</v>
       </c>
-      <c r="G13" s="45">
+      <c r="H13" s="45">
         <v>0.51300000000000001</v>
       </c>
-      <c r="H13" s="46">
+      <c r="I13" s="46">
         <v>0.53</v>
       </c>
     </row>
-    <row r="14" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C14" s="58"/>
       <c r="D14" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="33"/>
+      <c r="F14" s="20">
         <v>0.57250000000000001</v>
       </c>
-      <c r="F14" s="12">
+      <c r="G14" s="12">
         <v>0.54300000000000004</v>
       </c>
-      <c r="G14" s="47">
+      <c r="H14" s="47">
         <v>0.622</v>
       </c>
-      <c r="H14" s="48">
+      <c r="I14" s="48">
         <v>0.67</v>
       </c>
     </row>
-    <row r="15" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C15" s="59"/>
       <c r="D15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="21">
-        <f>(2*E13*E14)/(E13+E14)</f>
+      <c r="E15" s="2"/>
+      <c r="F15" s="21">
+        <f>(2*F13*F14)/(F13+F14)</f>
         <v>0.51903313598166534</v>
       </c>
-      <c r="F15" s="24">
-        <f t="shared" ref="F15:G15" si="1">(2*F13*F14)/(F13+F14)</f>
+      <c r="G15" s="24">
+        <f t="shared" ref="G15:H15" si="1">(2*G13*G14)/(G13+G14)</f>
         <v>0.58625593220338978</v>
       </c>
-      <c r="G15" s="22">
+      <c r="H15" s="22">
         <f t="shared" si="1"/>
         <v>0.56226607929515415</v>
       </c>
-      <c r="H15" s="23">
-        <f>(2*H13*H14)/(H13+H14)</f>
+      <c r="I15" s="23">
+        <f>(2*I13*I14)/(I13+I14)</f>
         <v>0.59183333333333332</v>
       </c>
     </row>
-    <row r="16" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C16" s="57" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="32"/>
+      <c r="F16" s="26">
         <v>0.92949999999999999</v>
       </c>
-      <c r="F16" s="11">
+      <c r="G16" s="11">
         <v>0.95699999999999996</v>
       </c>
-      <c r="G16" s="49">
+      <c r="H16" s="49">
         <v>0.85760000000000003</v>
       </c>
-      <c r="H16" s="11">
+      <c r="I16" s="11">
         <v>0.88</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C17" s="58"/>
       <c r="D17" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="27">
+      <c r="E17" s="33"/>
+      <c r="F17" s="27">
         <v>0.92600000000000005</v>
       </c>
-      <c r="F17" s="12">
+      <c r="G17" s="12">
         <v>0.86199999999999999</v>
       </c>
-      <c r="G17" s="50">
+      <c r="H17" s="50">
         <v>0.76290000000000002</v>
       </c>
-      <c r="H17" s="12">
+      <c r="I17" s="12">
         <v>0.92</v>
       </c>
     </row>
-    <row r="18" spans="3:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C18" s="59"/>
       <c r="D18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="28">
-        <f>(2*E16*E17)/(E16+E17)</f>
+      <c r="E18" s="73"/>
+      <c r="F18" s="28">
+        <f>(2*F16*F17)/(F16+F17)</f>
         <v>0.92774669900296414</v>
       </c>
-      <c r="F18" s="14">
-        <f t="shared" ref="F18:H18" si="2">(2*F16*F17)/(F16+F17)</f>
+      <c r="G18" s="14">
+        <f t="shared" ref="G18:I18" si="2">(2*G16*G17)/(G16+G17)</f>
         <v>0.90701924134139633</v>
       </c>
-      <c r="G18" s="51">
+      <c r="H18" s="51">
         <f t="shared" si="2"/>
         <v>0.80748292502314101</v>
       </c>
-      <c r="H18" s="41">
+      <c r="I18" s="41">
         <f t="shared" si="2"/>
         <v>0.89955555555555555</v>
       </c>
     </row>
-    <row r="19" spans="3:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="74"/>
+      <c r="F19" s="18">
         <v>0.94</v>
       </c>
-      <c r="F19" s="25">
+      <c r="G19" s="25">
         <v>0.97699999999999998</v>
       </c>
-      <c r="G19" s="52">
+      <c r="H19" s="52">
         <v>0.98</v>
       </c>
-      <c r="H19" s="53">
+      <c r="I19" s="53">
         <v>0.96479999999999999</v>
       </c>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D20" s="37"/>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="E20" s="37"/>
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D21" s="37"/>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="E21" s="37"/>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D22" s="37"/>
-    </row>
-    <row r="23" spans="3:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="3:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E24" s="7" t="s">
+      <c r="E22" s="37"/>
+    </row>
+    <row r="23" spans="3:10" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="3:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F24" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="G24" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G24" s="34" t="s">
+      <c r="H24" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="I24" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C25" s="54" t="s">
         <v>1</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="29">
+      <c r="E25" s="4"/>
+      <c r="F25" s="29">
         <v>0.20899999999999999</v>
       </c>
-      <c r="F25" s="15">
+      <c r="G25" s="15">
         <v>0.42948999999999998</v>
       </c>
-      <c r="G25" s="11">
+      <c r="H25" s="11">
         <v>0.22600000000000001</v>
       </c>
-      <c r="H25" s="11">
+      <c r="I25" s="11">
         <v>0.42620999999999998</v>
       </c>
     </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C26" s="55"/>
       <c r="D26" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="30">
+      <c r="E26" s="5"/>
+      <c r="F26" s="30">
         <v>0.19</v>
       </c>
-      <c r="F26" s="16">
+      <c r="G26" s="16">
         <v>0.20815</v>
       </c>
-      <c r="G26" s="44">
+      <c r="H26" s="44">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="H26" s="12">
+      <c r="I26" s="12">
         <v>0.21983</v>
       </c>
     </row>
-    <row r="27" spans="3:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C27" s="56"/>
       <c r="D27" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="22">
+      <c r="E27" s="6"/>
+      <c r="F27" s="22">
         <v>0.20100000000000001</v>
       </c>
-      <c r="F27" s="17">
+      <c r="G27" s="17">
         <v>0.192</v>
       </c>
-      <c r="G27" s="41">
+      <c r="H27" s="41">
         <v>0.30599999999999999</v>
       </c>
-      <c r="H27" s="14">
+      <c r="I27" s="14">
         <v>0.33034000000000002</v>
       </c>
     </row>
-    <row r="29" spans="3:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="3:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E30" s="3" t="s">
+    <row r="29" spans="3:10" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="3:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E30" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F30" s="34" t="s">
+      <c r="G30" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="G30" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H30" s="4" t="s">
+      <c r="H30" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I30" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="J30" s="68" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C31" s="54" t="s">
         <v>1</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E31" s="11">
+      <c r="F31" s="11">
         <v>0.42620999999999998</v>
       </c>
-      <c r="F31" s="11">
+      <c r="G31" s="11">
         <v>0.22600000000000001</v>
       </c>
-      <c r="G31" s="29">
+      <c r="H31" s="29">
         <v>0.20899999999999999</v>
       </c>
-      <c r="H31" s="15">
+      <c r="I31" s="15">
         <v>0.42948999999999998</v>
       </c>
     </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C32" s="55"/>
       <c r="D32" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="12">
+      <c r="F32" s="12">
         <v>0.21983</v>
       </c>
-      <c r="F32" s="44">
+      <c r="G32" s="44">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="G32" s="30">
+      <c r="H32" s="30">
         <v>0.19</v>
       </c>
-      <c r="H32" s="16">
+      <c r="I32" s="16">
         <v>0.20815</v>
       </c>
     </row>
-    <row r="33" spans="3:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C33" s="56"/>
       <c r="D33" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E33">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="F33" s="14">
         <v>0.33034000000000002</v>
       </c>
-      <c r="F33" s="41">
+      <c r="G33" s="41">
         <v>0.30599999999999999</v>
       </c>
-      <c r="G33" s="22">
+      <c r="H33" s="22">
         <v>0.20100000000000001</v>
       </c>
-      <c r="H33" s="17">
+      <c r="I33" s="17">
         <v>0.192</v>
+      </c>
+      <c r="J33">
+        <v>0.39200000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -10311,10 +10472,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED3572A6-A146-874B-BDD7-5DF962A760B9}">
-  <dimension ref="C2:O33"/>
+  <dimension ref="C2:P41"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10323,13 +10484,13 @@
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" customWidth="1"/>
-    <col min="8" max="8" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="20.6640625" customWidth="1"/>
+    <col min="9" max="9" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E3" s="7" t="s">
         <v>15</v>
       </c>
@@ -10339,11 +10500,12 @@
       <c r="G3" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="34"/>
+      <c r="I3" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C4" s="54" t="s">
         <v>5</v>
       </c>
@@ -10359,11 +10521,12 @@
       <c r="G4" s="8">
         <v>0.92</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="8"/>
+      <c r="I4" s="11">
         <v>0.85780000000000001</v>
       </c>
     </row>
-    <row r="5" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C5" s="55"/>
       <c r="D5" s="33" t="s">
         <v>13</v>
@@ -10377,11 +10540,12 @@
       <c r="G5" s="10">
         <v>0.91900000000000004</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="10"/>
+      <c r="I5" s="12">
         <v>0.82379999999999998</v>
       </c>
     </row>
-    <row r="6" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C6" s="56"/>
       <c r="D6" s="2" t="s">
         <v>7</v>
@@ -10398,15 +10562,16 @@
         <f>(2*G4*G5)/(G4+G5)</f>
         <v>0.9194997281131051</v>
       </c>
-      <c r="H6" s="41">
-        <f>(2*H4*H5)/(H4+H5)</f>
+      <c r="H6" s="67"/>
+      <c r="I6" s="41">
+        <f>(2*I4*I5)/(I4+I5)</f>
         <v>0.84045627973358705</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>0.95099999999999996</v>
       </c>
     </row>
-    <row r="7" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C7" s="57" t="s">
         <v>0</v>
       </c>
@@ -10422,11 +10587,12 @@
       <c r="G7" s="42">
         <v>0.86219999999999997</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="42"/>
+      <c r="I7" s="11">
         <v>0.86229999999999996</v>
       </c>
     </row>
-    <row r="8" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C8" s="58"/>
       <c r="D8" s="33" t="s">
         <v>13</v>
@@ -10440,15 +10606,16 @@
       <c r="G8" s="43">
         <v>0.89119999999999999</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="43"/>
+      <c r="I8" s="12">
         <v>0.89129999999999998</v>
       </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M8" s="4"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C9" s="59"/>
       <c r="D9" s="6" t="s">
         <v>7</v>
@@ -10464,12 +10631,13 @@
         <f t="shared" si="0"/>
         <v>0.87646018022128425</v>
       </c>
-      <c r="H9" s="13">
-        <f>(2*H7*H8)/(H7+H8)</f>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13">
+        <f>(2*I7*I8)/(I7+I8)</f>
         <v>0.87656020757299269</v>
       </c>
     </row>
-    <row r="10" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C10" s="57" t="s">
         <v>1</v>
       </c>
@@ -10485,11 +10653,12 @@
       <c r="G10" s="11">
         <v>0.22600000000000001</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="11"/>
+      <c r="I10" s="11">
         <v>0.42620999999999998</v>
       </c>
     </row>
-    <row r="11" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C11" s="58"/>
       <c r="D11" s="5" t="s">
         <v>6</v>
@@ -10503,11 +10672,12 @@
       <c r="G11" s="44">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="44"/>
+      <c r="I11" s="12">
         <v>0.21983</v>
       </c>
     </row>
-    <row r="12" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C12" s="59"/>
       <c r="D12" s="6" t="s">
         <v>9</v>
@@ -10521,11 +10691,12 @@
       <c r="G12" s="41">
         <v>0.20100000000000001</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="41"/>
+      <c r="I12" s="14">
         <v>0.33034000000000002</v>
       </c>
     </row>
-    <row r="13" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C13" s="57" t="s">
         <v>11</v>
       </c>
@@ -10541,11 +10712,12 @@
       <c r="G13" s="45">
         <v>0.51300000000000001</v>
       </c>
-      <c r="H13" s="46">
+      <c r="H13" s="45"/>
+      <c r="I13" s="46">
         <v>0.53</v>
       </c>
     </row>
-    <row r="14" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C14" s="58"/>
       <c r="D14" s="33" t="s">
         <v>13</v>
@@ -10559,11 +10731,12 @@
       <c r="G14" s="47">
         <v>0.622</v>
       </c>
-      <c r="H14" s="48">
+      <c r="H14" s="47"/>
+      <c r="I14" s="48">
         <v>0.67</v>
       </c>
     </row>
-    <row r="15" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C15" s="59"/>
       <c r="D15" s="6" t="s">
         <v>7</v>
@@ -10580,12 +10753,13 @@
         <f t="shared" si="1"/>
         <v>0.56226607929515415</v>
       </c>
-      <c r="H15" s="23">
-        <f>(2*H13*H14)/(H13+H14)</f>
+      <c r="H15" s="22"/>
+      <c r="I15" s="23">
+        <f>(2*I13*I14)/(I13+I14)</f>
         <v>0.59183333333333332</v>
       </c>
     </row>
-    <row r="16" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C16" s="57" t="s">
         <v>3</v>
       </c>
@@ -10601,14 +10775,15 @@
       <c r="G16" s="49">
         <v>0.85760000000000003</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="49"/>
+      <c r="I16" s="11">
         <v>0.88</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C17" s="58"/>
       <c r="D17" s="33" t="s">
         <v>13</v>
@@ -10622,11 +10797,12 @@
       <c r="G17" s="50">
         <v>0.76290000000000002</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="50"/>
+      <c r="I17" s="12">
         <v>0.92</v>
       </c>
     </row>
-    <row r="18" spans="3:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C18" s="59"/>
       <c r="D18" s="6" t="s">
         <v>7</v>
@@ -10636,19 +10812,20 @@
         <v>0.92774669900296414</v>
       </c>
       <c r="F18" s="14">
-        <f t="shared" ref="F18:H18" si="2">(2*F16*F17)/(F16+F17)</f>
+        <f t="shared" ref="F18:I18" si="2">(2*F16*F17)/(F16+F17)</f>
         <v>0.90701924134139633</v>
       </c>
       <c r="G18" s="51">
         <f t="shared" si="2"/>
         <v>0.80748292502314101</v>
       </c>
-      <c r="H18" s="41">
+      <c r="H18" s="51"/>
+      <c r="I18" s="41">
         <f t="shared" si="2"/>
         <v>0.89955555555555555</v>
       </c>
     </row>
-    <row r="19" spans="3:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
         <v>2</v>
       </c>
@@ -10664,21 +10841,22 @@
       <c r="G19" s="52">
         <v>0.98</v>
       </c>
-      <c r="H19" s="53">
+      <c r="H19" s="52"/>
+      <c r="I19" s="53">
         <v>0.96479999999999999</v>
       </c>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D20" s="37"/>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D21" s="37"/>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D22" s="37"/>
     </row>
-    <row r="23" spans="3:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="3:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:9" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="3:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E24" s="7" t="s">
         <v>15</v>
       </c>
@@ -10688,11 +10866,12 @@
       <c r="G24" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="34"/>
+      <c r="I24" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C25" s="57" t="s">
         <v>11</v>
       </c>
@@ -10708,11 +10887,12 @@
       <c r="G25" s="45">
         <v>0.51300000000000001</v>
       </c>
-      <c r="H25" s="63">
+      <c r="H25" s="45"/>
+      <c r="I25" s="63">
         <v>0.53</v>
       </c>
     </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C26" s="58"/>
       <c r="D26" s="33" t="s">
         <v>13</v>
@@ -10726,11 +10906,12 @@
       <c r="G26" s="47">
         <v>0.622</v>
       </c>
-      <c r="H26" s="64">
+      <c r="H26" s="47"/>
+      <c r="I26" s="64">
         <v>0.67</v>
       </c>
     </row>
-    <row r="27" spans="3:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C27" s="59"/>
       <c r="D27" s="6" t="s">
         <v>7</v>
@@ -10744,12 +10925,13 @@
       <c r="G27" s="22">
         <v>0.58599999999999997</v>
       </c>
-      <c r="H27" s="65">
+      <c r="H27" s="22"/>
+      <c r="I27" s="65">
         <v>0.59199999999999997</v>
       </c>
     </row>
-    <row r="29" spans="3:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="3:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:9" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="3:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E30" s="3" t="s">
         <v>16</v>
       </c>
@@ -10757,18 +10939,21 @@
         <v>14</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H30" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C31" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>8</v>
+      <c r="D31" s="32" t="s">
+        <v>12</v>
       </c>
       <c r="E31" s="63">
         <v>0.53</v>
@@ -10779,14 +10964,17 @@
       <c r="G31" s="19">
         <v>0.47470000000000001</v>
       </c>
-      <c r="H31" s="11">
+      <c r="H31">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="I31" s="11">
         <v>0.63700000000000001</v>
       </c>
     </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C32" s="58"/>
-      <c r="D32" s="5" t="s">
-        <v>6</v>
+      <c r="D32" s="33" t="s">
+        <v>13</v>
       </c>
       <c r="E32" s="64">
         <v>0.67</v>
@@ -10797,14 +10985,17 @@
       <c r="G32" s="20">
         <v>0.57250000000000001</v>
       </c>
-      <c r="H32" s="12">
+      <c r="H32">
+        <v>0.5</v>
+      </c>
+      <c r="I32" s="12">
         <v>0.54300000000000004</v>
       </c>
     </row>
-    <row r="33" spans="3:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C33" s="59"/>
       <c r="D33" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E33" s="65">
         <v>0.59199999999999997</v>
@@ -10815,8 +11006,38 @@
       <c r="G33" s="21">
         <v>0.56200000000000006</v>
       </c>
-      <c r="H33" s="24">
+      <c r="H33" s="77">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="I33" s="24">
         <v>0.51900000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D36" s="68"/>
+    </row>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F39">
+        <v>0.55900000000000005</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="F40">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F41" s="77">
+        <f>(2*F39*F40)/(F39+F40)</f>
+        <v>0.52785646836638334</v>
       </c>
     </row>
   </sheetData>
@@ -10837,512 +11058,622 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B625046-98F8-E84A-B9FE-D1413F988442}">
-  <dimension ref="C2:O33"/>
+  <dimension ref="C2:P43"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" customWidth="1"/>
-    <col min="8" max="8" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" customWidth="1"/>
+    <col min="9" max="9" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="7" t="s">
+    <row r="2" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="H3" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C4" s="54" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="38">
+      <c r="E4" s="69"/>
+      <c r="F4" s="38">
         <v>0.95369999999999999</v>
       </c>
-      <c r="F4" s="12">
+      <c r="G4" s="12">
         <v>0.92300000000000004</v>
       </c>
-      <c r="G4" s="8">
+      <c r="H4" s="8">
         <v>0.92</v>
       </c>
-      <c r="H4" s="11">
+      <c r="I4" s="11">
         <v>0.85780000000000001</v>
       </c>
     </row>
-    <row r="5" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C5" s="55"/>
       <c r="D5" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="39">
+      <c r="E5" s="70"/>
+      <c r="F5" s="39">
         <v>0.96140000000000003</v>
       </c>
-      <c r="F5" s="12">
+      <c r="G5" s="12">
         <v>0.91900000000000004</v>
       </c>
-      <c r="G5" s="10">
+      <c r="H5" s="10">
         <v>0.91900000000000004</v>
       </c>
-      <c r="H5" s="12">
+      <c r="I5" s="12">
         <v>0.82379999999999998</v>
       </c>
     </row>
-    <row r="6" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C6" s="56"/>
       <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="40">
-        <f>(2*E4*E5)/(E4+E5)</f>
+      <c r="E6" s="71"/>
+      <c r="F6" s="40">
+        <f>(2*F4*F5)/(F4+F5)</f>
         <v>0.95753452039058018</v>
       </c>
-      <c r="F6" s="14">
-        <f>(2*F4*F5)/(F4+F5)</f>
+      <c r="G6" s="14">
+        <f>(2*G4*G5)/(G4+G5)</f>
         <v>0.92099565689467977</v>
       </c>
-      <c r="G6" s="35">
-        <f>(2*G4*G5)/(G4+G5)</f>
+      <c r="H6" s="35">
+        <f>(2*H4*H5)/(H4+H5)</f>
         <v>0.9194997281131051</v>
       </c>
-      <c r="H6" s="41">
-        <f>(2*H4*H5)/(H4+H5)</f>
+      <c r="I6" s="41">
+        <f>(2*I4*I5)/(I4+I5)</f>
         <v>0.84045627973358705</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>0.95099999999999996</v>
       </c>
     </row>
-    <row r="7" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C7" s="57" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="72"/>
+      <c r="F7" s="36">
         <v>0.92800000000000005</v>
       </c>
-      <c r="F7" s="31">
+      <c r="G7" s="31">
         <v>0.92400000000000004</v>
       </c>
-      <c r="G7" s="42">
+      <c r="H7" s="42">
         <v>0.86219999999999997</v>
       </c>
-      <c r="H7" s="11">
+      <c r="I7" s="11">
         <v>0.86229999999999996</v>
       </c>
     </row>
-    <row r="8" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C8" s="58"/>
       <c r="D8" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="33"/>
+      <c r="F8" s="20">
         <v>0.92900000000000005</v>
       </c>
-      <c r="F8" s="9">
+      <c r="G8" s="9">
         <v>0.92400000000000004</v>
       </c>
-      <c r="G8" s="43">
+      <c r="H8" s="43">
         <v>0.89119999999999999</v>
       </c>
-      <c r="H8" s="12">
+      <c r="I8" s="12">
         <v>0.89129999999999998</v>
       </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M8" s="4"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C9" s="59"/>
       <c r="D9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="73"/>
+      <c r="F9" s="20">
         <v>0.92900000000000005</v>
       </c>
-      <c r="F9" s="23">
-        <f t="shared" ref="F9:G9" si="0">(2*F7*F8)/(F7+F8)</f>
+      <c r="G9" s="23">
+        <f t="shared" ref="G9:H9" si="0">(2*G7*G8)/(G7+G8)</f>
         <v>0.92400000000000004</v>
       </c>
-      <c r="G9" s="13">
+      <c r="H9" s="13">
         <f t="shared" si="0"/>
         <v>0.87646018022128425</v>
       </c>
-      <c r="H9" s="13">
-        <f>(2*H7*H8)/(H7+H8)</f>
+      <c r="I9" s="13">
+        <f>(2*I7*I8)/(I7+I8)</f>
         <v>0.87656020757299269</v>
       </c>
     </row>
-    <row r="10" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C10" s="57" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="4"/>
+      <c r="F10" s="29">
         <v>0.20899999999999999</v>
       </c>
-      <c r="F10" s="15">
+      <c r="G10" s="15">
         <v>0.42948999999999998</v>
       </c>
-      <c r="G10" s="11">
+      <c r="H10" s="11">
         <v>0.22600000000000001</v>
       </c>
-      <c r="H10" s="11">
+      <c r="I10" s="11">
         <v>0.42620999999999998</v>
       </c>
     </row>
-    <row r="11" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C11" s="58"/>
       <c r="D11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E11" s="5"/>
+      <c r="F11" s="30">
         <v>0.19</v>
       </c>
-      <c r="F11" s="16">
+      <c r="G11" s="16">
         <v>0.20815</v>
       </c>
-      <c r="G11" s="44">
+      <c r="H11" s="44">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="H11" s="12">
+      <c r="I11" s="12">
         <v>0.21983</v>
       </c>
     </row>
-    <row r="12" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C12" s="59"/>
       <c r="D12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="6"/>
+      <c r="F12" s="22">
         <v>0.1918</v>
       </c>
-      <c r="F12" s="17">
+      <c r="G12" s="17">
         <v>0.30619000000000002</v>
       </c>
-      <c r="G12" s="41">
+      <c r="H12" s="41">
         <v>0.20100000000000001</v>
       </c>
-      <c r="H12" s="14">
+      <c r="I12" s="14">
         <v>0.33034000000000002</v>
       </c>
     </row>
-    <row r="13" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C13" s="57" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="32"/>
+      <c r="F13" s="19">
         <v>0.47470000000000001</v>
       </c>
-      <c r="F13" s="11">
+      <c r="G13" s="11">
         <v>0.63700000000000001</v>
       </c>
-      <c r="G13" s="45">
+      <c r="H13" s="45">
         <v>0.51300000000000001</v>
       </c>
-      <c r="H13" s="46">
+      <c r="I13" s="46">
         <v>0.53</v>
       </c>
     </row>
-    <row r="14" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C14" s="58"/>
       <c r="D14" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="33"/>
+      <c r="F14" s="20">
         <v>0.57250000000000001</v>
       </c>
-      <c r="F14" s="12">
+      <c r="G14" s="12">
         <v>0.54300000000000004</v>
       </c>
-      <c r="G14" s="47">
+      <c r="H14" s="47">
         <v>0.622</v>
       </c>
-      <c r="H14" s="48">
+      <c r="I14" s="48">
         <v>0.67</v>
       </c>
     </row>
-    <row r="15" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C15" s="59"/>
       <c r="D15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="21">
-        <f>(2*E13*E14)/(E13+E14)</f>
+      <c r="E15" s="2"/>
+      <c r="F15" s="21">
+        <f>(2*F13*F14)/(F13+F14)</f>
         <v>0.51903313598166534</v>
       </c>
-      <c r="F15" s="24">
-        <f t="shared" ref="F15:G15" si="1">(2*F13*F14)/(F13+F14)</f>
+      <c r="G15" s="24">
+        <f t="shared" ref="G15:H15" si="1">(2*G13*G14)/(G13+G14)</f>
         <v>0.58625593220338978</v>
       </c>
-      <c r="G15" s="22">
+      <c r="H15" s="22">
         <f t="shared" si="1"/>
         <v>0.56226607929515415</v>
       </c>
-      <c r="H15" s="23">
-        <f>(2*H13*H14)/(H13+H14)</f>
+      <c r="I15" s="23">
+        <f>(2*I13*I14)/(I13+I14)</f>
         <v>0.59183333333333332</v>
       </c>
     </row>
-    <row r="16" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C16" s="57" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="32"/>
+      <c r="F16" s="26">
         <v>0.92949999999999999</v>
       </c>
-      <c r="F16" s="11">
+      <c r="G16" s="11">
         <v>0.95699999999999996</v>
       </c>
-      <c r="G16" s="49">
+      <c r="H16" s="49">
         <v>0.85760000000000003</v>
       </c>
-      <c r="H16" s="11">
+      <c r="I16" s="11">
         <v>0.88</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C17" s="58"/>
       <c r="D17" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="27">
+      <c r="E17" s="33"/>
+      <c r="F17" s="27">
         <v>0.92600000000000005</v>
       </c>
-      <c r="F17" s="12">
+      <c r="G17" s="12">
         <v>0.86199999999999999</v>
       </c>
-      <c r="G17" s="50">
+      <c r="H17" s="50">
         <v>0.76290000000000002</v>
       </c>
-      <c r="H17" s="12">
+      <c r="I17" s="12">
         <v>0.92</v>
       </c>
     </row>
-    <row r="18" spans="3:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C18" s="59"/>
       <c r="D18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="28">
-        <f>(2*E16*E17)/(E16+E17)</f>
+      <c r="E18" s="73"/>
+      <c r="F18" s="28">
+        <f>(2*F16*F17)/(F16+F17)</f>
         <v>0.92774669900296414</v>
       </c>
-      <c r="F18" s="14">
-        <f t="shared" ref="F18:H18" si="2">(2*F16*F17)/(F16+F17)</f>
+      <c r="G18" s="14">
+        <f t="shared" ref="G18:I18" si="2">(2*G16*G17)/(G16+G17)</f>
         <v>0.90701924134139633</v>
       </c>
-      <c r="G18" s="51">
+      <c r="H18" s="51">
         <f t="shared" si="2"/>
         <v>0.80748292502314101</v>
       </c>
-      <c r="H18" s="41">
+      <c r="I18" s="41">
         <f t="shared" si="2"/>
         <v>0.89955555555555555</v>
       </c>
     </row>
-    <row r="19" spans="3:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="74"/>
+      <c r="F19" s="18">
         <v>0.94</v>
       </c>
-      <c r="F19" s="25">
+      <c r="G19" s="25">
         <v>0.97699999999999998</v>
       </c>
-      <c r="G19" s="52">
+      <c r="H19" s="52">
         <v>0.98</v>
       </c>
-      <c r="H19" s="53">
+      <c r="I19" s="53">
         <v>0.96479999999999999</v>
       </c>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D20" s="37"/>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="E20" s="37"/>
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D21" s="37"/>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="E21" s="37"/>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D22" s="37"/>
-    </row>
-    <row r="23" spans="3:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="3:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E24" s="7" t="s">
+      <c r="E22" s="37"/>
+    </row>
+    <row r="23" spans="3:10" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="3:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F24" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="G24" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G24" s="34" t="s">
+      <c r="H24" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="I24" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C25" s="57" t="s">
         <v>3</v>
       </c>
       <c r="D25" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E25" s="32"/>
+      <c r="F25" s="19">
         <v>0.47470000000000001</v>
       </c>
-      <c r="F25" s="11">
+      <c r="G25" s="11">
         <v>0.63700000000000001</v>
       </c>
-      <c r="G25" s="45">
+      <c r="H25" s="45">
         <v>0.51300000000000001</v>
       </c>
-      <c r="H25" s="63">
+      <c r="I25" s="63">
         <v>0.53</v>
       </c>
     </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C26" s="58"/>
       <c r="D26" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="20">
+      <c r="E26" s="33"/>
+      <c r="F26" s="20">
         <v>0.57250000000000001</v>
       </c>
-      <c r="F26" s="12">
+      <c r="G26" s="12">
         <v>0.54300000000000004</v>
       </c>
-      <c r="G26" s="47">
+      <c r="H26" s="47">
         <v>0.622</v>
       </c>
-      <c r="H26" s="64">
+      <c r="I26" s="64">
         <v>0.67</v>
       </c>
     </row>
-    <row r="27" spans="3:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C27" s="59"/>
       <c r="D27" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E27" s="2"/>
+      <c r="F27" s="21">
         <v>0.80800000000000005</v>
       </c>
-      <c r="F27" s="24">
+      <c r="G27" s="24">
         <v>0.92800000000000005</v>
       </c>
-      <c r="G27" s="22">
+      <c r="H27" s="22">
         <v>0.90700000000000003</v>
       </c>
-      <c r="H27" s="65">
+      <c r="I27" s="65">
         <v>0.9</v>
       </c>
     </row>
-    <row r="29" spans="3:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="3:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E30" s="4" t="s">
+    <row r="29" spans="3:10" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="3:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F30" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F30" s="34" t="s">
+      <c r="G30" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="H30" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H30" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="I30" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J30" s="68" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C31" s="57" t="s">
         <v>3</v>
       </c>
       <c r="D31" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E31" s="32"/>
+      <c r="F31" s="11">
         <v>0.63700000000000001</v>
       </c>
-      <c r="F31" s="45">
+      <c r="G31" s="45">
         <v>0.51300000000000001</v>
       </c>
-      <c r="G31" s="63">
+      <c r="H31" s="63">
         <v>0.53</v>
       </c>
-      <c r="H31" s="19">
+      <c r="I31" s="19">
         <v>0.47470000000000001</v>
       </c>
-    </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="J31">
+        <v>0.75700000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C32" s="58"/>
       <c r="D32" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E32" s="33"/>
+      <c r="F32" s="12">
         <v>0.54300000000000004</v>
       </c>
-      <c r="F32" s="47">
+      <c r="G32" s="47">
         <v>0.622</v>
       </c>
-      <c r="G32" s="64">
+      <c r="H32" s="64">
         <v>0.67</v>
       </c>
-      <c r="H32" s="20">
+      <c r="I32" s="20">
         <v>0.57250000000000001</v>
       </c>
-    </row>
-    <row r="33" spans="3:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J32">
+        <v>0.70699999999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="3:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C33" s="59"/>
       <c r="D33" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="24">
+      <c r="E33" s="76"/>
+      <c r="F33" s="24">
         <v>0.92800000000000005</v>
       </c>
-      <c r="F33" s="22">
+      <c r="G33" s="22">
         <v>0.90700000000000003</v>
       </c>
-      <c r="G33" s="65">
+      <c r="H33" s="65">
         <v>0.9</v>
       </c>
-      <c r="H33" s="21">
+      <c r="I33" s="21">
         <v>0.80800000000000005</v>
+      </c>
+      <c r="J33" s="75">
+        <v>0.73499999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="68"/>
+      <c r="F37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C38">
+        <v>0.88</v>
+      </c>
+      <c r="D38">
+        <v>0.87</v>
+      </c>
+      <c r="F38">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="39" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C39">
+        <v>0.76</v>
+      </c>
+      <c r="D39">
+        <v>0.71</v>
+      </c>
+      <c r="F39">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="40" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C40">
+        <v>0.63</v>
+      </c>
+      <c r="D40">
+        <v>0.54</v>
+      </c>
+      <c r="F40">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="41" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C41" s="51">
+        <f>AVERAGE(C38:C40)</f>
+        <v>0.75666666666666671</v>
+      </c>
+      <c r="D41" s="51">
+        <f t="shared" ref="C41:D42" si="3">AVERAGE(D38:D40)</f>
+        <v>0.70666666666666667</v>
+      </c>
+      <c r="E41" s="51"/>
+      <c r="F41" s="51">
+        <f>AVERAGE(F38:F40)</f>
+        <v>0.69333333333333336</v>
+      </c>
+    </row>
+    <row r="42" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C42" s="51">
+        <f t="shared" si="3"/>
+        <v>0.71555555555555561</v>
+      </c>
+    </row>
+    <row r="43" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C43">
+        <f>(2*C41*C42)/(C41+C42)</f>
+        <v>0.73553710691823915</v>
       </c>
     </row>
   </sheetData>
@@ -11365,8 +11696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DF3BFBF-1939-D24D-9B02-EE9193637D04}">
   <dimension ref="C2:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30:H33"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11660,7 +11991,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C17" s="58"/>
       <c r="D17" s="33" t="s">
         <v>13</v>
@@ -11678,7 +12009,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="18" spans="3:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C18" s="59"/>
       <c r="D18" s="6" t="s">
         <v>7</v>
@@ -11700,7 +12031,7 @@
         <v>0.89955555555555555</v>
       </c>
     </row>
-    <row r="19" spans="3:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
         <v>2</v>
       </c>
@@ -11720,17 +12051,17 @@
         <v>0.96479999999999999</v>
       </c>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D20" s="37"/>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D21" s="37"/>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D22" s="37"/>
     </row>
-    <row r="23" spans="3:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="3:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:9" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="3:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E24" s="7" t="s">
         <v>15</v>
       </c>
@@ -11744,7 +12075,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C25" s="57" t="s">
         <v>3</v>
       </c>
@@ -11764,7 +12095,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="26" spans="3:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C26" s="58"/>
       <c r="D26" s="33" t="s">
         <v>13</v>
@@ -11782,7 +12113,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="27" spans="3:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C27" s="59"/>
       <c r="D27" s="3" t="s">
         <v>10</v>
@@ -11800,8 +12131,8 @@
         <v>0.96499999999999997</v>
       </c>
     </row>
-    <row r="29" spans="3:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="3:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:9" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="3:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E30" s="7" t="s">
         <v>15</v>
       </c>
@@ -11809,13 +12140,16 @@
         <v>14</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="I30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C31" s="57" t="s">
         <v>3</v>
       </c>
@@ -11835,7 +12169,7 @@
         <v>0.63700000000000001</v>
       </c>
     </row>
-    <row r="32" spans="3:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C32" s="58"/>
       <c r="D32" s="33" t="s">
         <v>13</v>
@@ -11853,7 +12187,7 @@
         <v>0.54300000000000004</v>
       </c>
     </row>
-    <row r="33" spans="3:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C33" s="59"/>
       <c r="D33" s="3" t="s">
         <v>10</v>
@@ -11869,6 +12203,9 @@
       </c>
       <c r="H33" s="24">
         <v>0.94</v>
+      </c>
+      <c r="I33" s="77">
+        <v>0.78</v>
       </c>
     </row>
   </sheetData>

--- a/other documentation/report_rezultatov_v1.xlsx
+++ b/other documentation/report_rezultatov_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/r.grilj/Documents/GitHub/BMA_roma_MAG/other documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F439DE91-DF1F-D94D-BDEB-5E9BC3B52117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDAFB74-604D-1041-A512-D28D8766B37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="760" windowWidth="34560" windowHeight="20360" activeTab="6" xr2:uid="{7C5033A3-0CD7-46B1-9957-C1698C274436}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="8" xr2:uid="{7C5033A3-0CD7-46B1-9957-C1698C274436}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,33 @@
     <sheet name="summarization" sheetId="5" r:id="rId4"/>
     <sheet name="key pharses" sheetId="6" r:id="rId5"/>
     <sheet name="text classification" sheetId="7" r:id="rId6"/>
-    <sheet name="object detection" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="9" r:id="rId7"/>
+    <sheet name="object detection" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet9" sheetId="10" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet9!$A$2:$A$5</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet9!$B$1</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet9!$C$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet9!$C$2:$C$5</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet9!$D$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet9!$D$2:$D$5</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet9!$A$2:$A$5</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet9!$B$1</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet9!$B$2:$B$5</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet9!$C$1</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Sheet9!$C$2:$C$5</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Sheet9!$D$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet9!$B$2:$B$5</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Sheet9!$D$2:$D$5</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet9!$C$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet9!$C$2:$C$5</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet9!$D$1</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet9!$D$2:$D$5</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet9!$A$2:$A$5</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet9!$B$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet9!$B$2:$B$5</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="27">
   <si>
     <t>Sentiment Analaysis</t>
   </si>
@@ -112,6 +137,15 @@
   </si>
   <si>
     <t>Azure  Services</t>
+  </si>
+  <si>
+    <t>CENA</t>
+  </si>
+  <si>
+    <t>ENOSTAVNOST</t>
+  </si>
+  <si>
+    <t>USPEŠNOST</t>
   </si>
 </sst>
 </file>
@@ -3308,11 +3342,11 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'object detection'!$E$30:$H$30</c:f>
+              <c:f>('object detection'!$E$30:$H$30,'object detection'!$I$30)</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>AWS Amazon SageMaker</c:v>
+                  <c:v>AWS  SageMaker</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Google Vertex AI</c:v>
@@ -3323,15 +3357,18 @@
                 <c:pt idx="3">
                   <c:v>Transformers</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>Rezultati članka</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'object detection'!$E$33:$H$33</c:f>
+              <c:f>('object detection'!$E$33:$H$33,'object detection'!$I$33)</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.98</c:v>
                 </c:pt>
@@ -3343,6 +3380,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3494,6 +3534,511 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-SI"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="0" lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              </a:rPr>
+              <a:t>Chart Title</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-SI"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet9!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CENA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet9!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Transformers</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Google Vertex AI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AWS Amazon SageMaker</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Azure Cognitive Services</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet9!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-61ED-C642-9084-B187D2FE7C22}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet9!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ENOSTAVNOST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet9!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Transformers</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Google Vertex AI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AWS Amazon SageMaker</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Azure Cognitive Services</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet9!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-61ED-C642-9084-B187D2FE7C22}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet9!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>USPEŠNOST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet9!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Transformers</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Google Vertex AI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AWS Amazon SageMaker</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Azure Cognitive Services</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet9!$D$2:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-61ED-C642-9084-B187D2FE7C22}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="1529963231"/>
+        <c:axId val="1529964959"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1529963231"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-SI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1529964959"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1529964959"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-SI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1529963231"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-SI"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -3818,6 +4363,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="223">
   <cs:axisTitle>
@@ -7979,6 +8564,509 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -8262,6 +9350,47 @@
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1ED8DC7C-7784-33C3-89B8-01F81D230545}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -11060,8 +12189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B625046-98F8-E84A-B9FE-D1413F988442}">
   <dimension ref="C2:P43"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11693,11 +12822,23 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BB0F2E8-881E-A742-907B-008E1FB5F919}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DF3BFBF-1939-D24D-9B02-EE9193637D04}">
   <dimension ref="C2:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12134,7 +13275,7 @@
     <row r="29" spans="3:9" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="3:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E30" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F30" s="34" t="s">
         <v>14</v>
@@ -12222,4 +13363,92 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AA2618-4021-694C-8A1F-02995639E3C7}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/other documentation/report_rezultatov_v1.xlsx
+++ b/other documentation/report_rezultatov_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/r.grilj/Documents/GitHub/BMA_roma_MAG/other documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDAFB74-604D-1041-A512-D28D8766B37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D10947-FD3C-4540-9826-4CB86156B1A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="8" xr2:uid="{7C5033A3-0CD7-46B1-9957-C1698C274436}"/>
+    <workbookView xWindow="300" yWindow="800" windowWidth="34560" windowHeight="21580" activeTab="8" xr2:uid="{7C5033A3-0CD7-46B1-9957-C1698C274436}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -30,14 +30,7 @@
     <definedName name="_xlchart.v1.11" hidden="1">Sheet9!$C$2:$C$5</definedName>
     <definedName name="_xlchart.v1.12" hidden="1">Sheet9!$D$1</definedName>
     <definedName name="_xlchart.v1.13" hidden="1">Sheet9!$D$2:$D$5</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet9!$A$2:$A$5</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet9!$B$1</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet9!$B$2:$B$5</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet9!$C$1</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet9!$C$2:$C$5</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet9!$D$1</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Sheet9!$B$2:$B$5</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet9!$D$2:$D$5</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Sheet9!$C$1</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">Sheet9!$C$2:$C$5</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">Sheet9!$D$1</definedName>
@@ -3664,75 +3657,83 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet9!$B$1</c:f>
+              <c:f>Sheet9!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CENA</c:v>
+                  <c:v>Transformers</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="25400">
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet9!$A$2:$A$5</c:f>
+              <c:f>Sheet9!$B$1:$D$1</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Transformers</c:v>
+                  <c:v>CENA</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Google Vertex AI</c:v>
+                  <c:v>ENOSTAVNOST</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>AWS Amazon SageMaker</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Azure Cognitive Services</c:v>
+                  <c:v>USPEŠNOST</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet9!$B$2:$B$5</c:f>
+              <c:f>Sheet9!$B$2:$D$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-61ED-C642-9084-B187D2FE7C22}"/>
@@ -3744,66 +3745,75 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet9!$C$1</c:f>
+              <c:f>Sheet9!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ENOSTAVNOST</c:v>
+                  <c:v>Google Vertex AI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln w="25400">
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet9!$A$2:$A$5</c:f>
+              <c:f>Sheet9!$B$1:$D$1</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Transformers</c:v>
+                  <c:v>CENA</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Google Vertex AI</c:v>
+                  <c:v>ENOSTAVNOST</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>AWS Amazon SageMaker</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Azure Cognitive Services</c:v>
+                  <c:v>USPEŠNOST</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet9!$C$2:$C$5</c:f>
+              <c:f>Sheet9!$B$3:$D$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-61ED-C642-9084-B187D2FE7C22}"/>
@@ -3815,53 +3825,144 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet9!$D$1</c:f>
+              <c:f>Sheet9!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>USPEŠNOST</c:v>
+                  <c:v>AWS Amazon SageMaker</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet9!$A$2:$A$5</c:f>
+              <c:f>Sheet9!$B$1:$D$1</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Transformers</c:v>
+                  <c:v>CENA</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Google Vertex AI</c:v>
+                  <c:v>ENOSTAVNOST</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>AWS Amazon SageMaker</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Azure Cognitive Services</c:v>
+                  <c:v>USPEŠNOST</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet9!$D$2:$D$5</c:f>
+              <c:f>Sheet9!$B$4:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-61ED-C642-9084-B187D2FE7C22}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet9!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Azure Cognitive Services</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet9!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>CENA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ENOSTAVNOST</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>USPEŠNOST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet9!$B$5:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -3869,15 +3970,13 @@
                 <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-61ED-C642-9084-B187D2FE7C22}"/>
+              <c16:uniqueId val="{00000004-61ED-C642-9084-B187D2FE7C22}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3889,17 +3988,18 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="1529963231"/>
         <c:axId val="1529964959"/>
-      </c:barChart>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="1529963231"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="t"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3947,7 +4047,7 @@
       <c:valAx>
         <c:axId val="1529964959"/>
         <c:scaling>
-          <c:orientation val="minMax"/>
+          <c:orientation val="maxMin"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -9370,16 +9470,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13370,7 +13470,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D5"/>
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/other documentation/report_rezultatov_v1.xlsx
+++ b/other documentation/report_rezultatov_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/r.grilj/Documents/GitHub/BMA_roma_MAG/other documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D10947-FD3C-4540-9826-4CB86156B1A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F68FCF3-6A2C-8243-A90F-F785652F8B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="300" yWindow="800" windowWidth="34560" windowHeight="21580" activeTab="8" xr2:uid="{7C5033A3-0CD7-46B1-9957-C1698C274436}"/>
   </bookViews>
@@ -132,13 +132,13 @@
     <t>Azure  Services</t>
   </si>
   <si>
-    <t>CENA</t>
+    <t>cena</t>
   </si>
   <si>
-    <t>ENOSTAVNOST</t>
+    <t>enostavnost</t>
   </si>
   <si>
-    <t>USPEŠNOST</t>
+    <t>uspešnost</t>
   </si>
 </sst>
 </file>
@@ -3704,13 +3704,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>CENA</c:v>
+                  <c:v>cena</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ENOSTAVNOST</c:v>
+                  <c:v>enostavnost</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>USPEŠNOST</c:v>
+                  <c:v>uspešnost</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3784,13 +3784,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>CENA</c:v>
+                  <c:v>cena</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ENOSTAVNOST</c:v>
+                  <c:v>enostavnost</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>USPEŠNOST</c:v>
+                  <c:v>uspešnost</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3864,13 +3864,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>CENA</c:v>
+                  <c:v>cena</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ENOSTAVNOST</c:v>
+                  <c:v>enostavnost</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>USPEŠNOST</c:v>
+                  <c:v>uspešnost</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3944,13 +3944,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>CENA</c:v>
+                  <c:v>cena</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ENOSTAVNOST</c:v>
+                  <c:v>enostavnost</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>USPEŠNOST</c:v>
+                  <c:v>uspešnost</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4003,7 +4003,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="high"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -4022,7 +4022,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4098,7 +4098,7 @@
         </c:txPr>
         <c:crossAx val="1529963231"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -9470,16 +9470,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13470,7 +13470,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+      <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/other documentation/report_rezultatov_v1.xlsx
+++ b/other documentation/report_rezultatov_v1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/r.grilj/Documents/GitHub/BMA_roma_MAG/other documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F68FCF3-6A2C-8243-A90F-F785652F8B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570D5941-9D79-A94F-B7B2-84BB5DF96D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="800" windowWidth="34560" windowHeight="21580" activeTab="8" xr2:uid="{7C5033A3-0CD7-46B1-9957-C1698C274436}"/>
+    <workbookView xWindow="-39820" yWindow="-840" windowWidth="34560" windowHeight="23220" activeTab="7" xr2:uid="{7C5033A3-0CD7-46B1-9957-C1698C274436}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -23,22 +23,6 @@
     <sheet name="object detection" sheetId="8" r:id="rId8"/>
     <sheet name="Sheet9" sheetId="10" r:id="rId9"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet9!$A$2:$A$5</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet9!$B$1</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet9!$C$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet9!$C$2:$C$5</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet9!$D$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet9!$D$2:$D$5</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet9!$B$2:$B$5</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet9!$C$1</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet9!$C$2:$C$5</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet9!$D$1</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet9!$D$2:$D$5</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet9!$A$2:$A$5</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet9!$B$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet9!$B$2:$B$5</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -58,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="33">
   <si>
     <t>Sentiment Analaysis</t>
   </si>
@@ -140,6 +124,24 @@
   <si>
     <t>uspešnost</t>
   </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t>MISC</t>
+  </si>
+  <si>
+    <t>LOC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Analiza napak</t>
+  </si>
+  <si>
+    <t>ANALIZA NAPAK</t>
+  </si>
 </sst>
 </file>
 
@@ -191,7 +193,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -549,12 +551,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -645,6 +662,28 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="21" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="22" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -663,30 +702,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="21" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="22" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -9216,16 +9236,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1511300</xdr:colOff>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9837,7 +9857,7 @@
       </c>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="70" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="32" t="s">
@@ -9857,7 +9877,7 @@
       </c>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C5" s="55"/>
+      <c r="C5" s="71"/>
       <c r="D5" s="33" t="s">
         <v>13</v>
       </c>
@@ -9875,7 +9895,7 @@
       </c>
     </row>
     <row r="6" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="56"/>
+      <c r="C6" s="72"/>
       <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
@@ -9900,7 +9920,7 @@
       </c>
     </row>
     <row r="7" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="73" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="32" t="s">
@@ -9920,7 +9940,7 @@
       </c>
     </row>
     <row r="8" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="58"/>
+      <c r="C8" s="74"/>
       <c r="D8" s="33" t="s">
         <v>13</v>
       </c>
@@ -9942,7 +9962,7 @@
       <c r="O8" s="3"/>
     </row>
     <row r="9" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="59"/>
+      <c r="C9" s="75"/>
       <c r="D9" s="6" t="s">
         <v>7</v>
       </c>
@@ -9963,7 +9983,7 @@
       </c>
     </row>
     <row r="10" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="73" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -9983,7 +10003,7 @@
       </c>
     </row>
     <row r="11" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C11" s="58"/>
+      <c r="C11" s="74"/>
       <c r="D11" s="5" t="s">
         <v>6</v>
       </c>
@@ -10001,7 +10021,7 @@
       </c>
     </row>
     <row r="12" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="59"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="6" t="s">
         <v>9</v>
       </c>
@@ -10019,7 +10039,7 @@
       </c>
     </row>
     <row r="13" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C13" s="57" t="s">
+      <c r="C13" s="73" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="32" t="s">
@@ -10039,7 +10059,7 @@
       </c>
     </row>
     <row r="14" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C14" s="58"/>
+      <c r="C14" s="74"/>
       <c r="D14" s="33" t="s">
         <v>13</v>
       </c>
@@ -10057,7 +10077,7 @@
       </c>
     </row>
     <row r="15" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="59"/>
+      <c r="C15" s="75"/>
       <c r="D15" s="6" t="s">
         <v>7</v>
       </c>
@@ -10079,7 +10099,7 @@
       </c>
     </row>
     <row r="16" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C16" s="57" t="s">
+      <c r="C16" s="73" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="32" t="s">
@@ -10099,7 +10119,7 @@
       </c>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C17" s="58"/>
+      <c r="C17" s="74"/>
       <c r="D17" s="33" t="s">
         <v>13</v>
       </c>
@@ -10117,7 +10137,7 @@
       </c>
     </row>
     <row r="18" spans="3:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="59"/>
+      <c r="C18" s="75"/>
       <c r="D18" s="6" t="s">
         <v>7</v>
       </c>
@@ -10183,10 +10203,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A4C076D-01EB-3B4E-ADA1-A3FE857A6226}">
-  <dimension ref="C2:P22"/>
+  <dimension ref="C2:P40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="C33" sqref="C33:G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10222,7 +10242,7 @@
       </c>
     </row>
     <row r="4" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="70" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="32" t="s">
@@ -10237,18 +10257,18 @@
       <c r="G4" s="8">
         <v>0.92</v>
       </c>
-      <c r="H4" s="66">
+      <c r="H4" s="51">
         <v>0.91800000000000004</v>
       </c>
       <c r="I4" s="11">
         <v>0.85780000000000001</v>
       </c>
-      <c r="J4" s="66">
+      <c r="J4" s="51">
         <v>0.91800000000000004</v>
       </c>
     </row>
     <row r="5" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C5" s="55"/>
+      <c r="C5" s="71"/>
       <c r="D5" s="33" t="s">
         <v>13</v>
       </c>
@@ -10261,18 +10281,18 @@
       <c r="G5" s="10">
         <v>0.91900000000000004</v>
       </c>
-      <c r="H5" s="66">
+      <c r="H5" s="51">
         <v>0.91300000000000003</v>
       </c>
       <c r="I5" s="12">
         <v>0.82379999999999998</v>
       </c>
-      <c r="J5" s="66">
+      <c r="J5" s="51">
         <v>0.91300000000000003</v>
       </c>
     </row>
     <row r="6" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="56"/>
+      <c r="C6" s="72"/>
       <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
@@ -10303,7 +10323,7 @@
       </c>
     </row>
     <row r="7" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="73" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="32" t="s">
@@ -10324,7 +10344,7 @@
       </c>
     </row>
     <row r="8" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="58"/>
+      <c r="C8" s="74"/>
       <c r="D8" s="33" t="s">
         <v>13</v>
       </c>
@@ -10347,7 +10367,7 @@
       <c r="P8" s="3"/>
     </row>
     <row r="9" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="59"/>
+      <c r="C9" s="75"/>
       <c r="D9" s="6" t="s">
         <v>7</v>
       </c>
@@ -10369,7 +10389,7 @@
       </c>
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="73" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -10390,7 +10410,7 @@
       </c>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C11" s="58"/>
+      <c r="C11" s="74"/>
       <c r="D11" s="5" t="s">
         <v>6</v>
       </c>
@@ -10409,7 +10429,7 @@
       </c>
     </row>
     <row r="12" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="59"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="6" t="s">
         <v>9</v>
       </c>
@@ -10428,7 +10448,7 @@
       </c>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C13" s="57" t="s">
+      <c r="C13" s="73" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="32" t="s">
@@ -10449,7 +10469,7 @@
       </c>
     </row>
     <row r="14" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C14" s="58"/>
+      <c r="C14" s="74"/>
       <c r="D14" s="33" t="s">
         <v>13</v>
       </c>
@@ -10468,7 +10488,7 @@
       </c>
     </row>
     <row r="15" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="59"/>
+      <c r="C15" s="75"/>
       <c r="D15" s="6" t="s">
         <v>7</v>
       </c>
@@ -10491,7 +10511,7 @@
       </c>
     </row>
     <row r="16" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C16" s="57" t="s">
+      <c r="C16" s="73" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="32" t="s">
@@ -10512,7 +10532,7 @@
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C17" s="58"/>
+      <c r="C17" s="74"/>
       <c r="D17" s="33" t="s">
         <v>13</v>
       </c>
@@ -10531,7 +10551,7 @@
       </c>
     </row>
     <row r="18" spans="3:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="59"/>
+      <c r="C18" s="75"/>
       <c r="D18" s="6" t="s">
         <v>7</v>
       </c>
@@ -10583,8 +10603,202 @@
     <row r="22" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D22" s="37"/>
     </row>
+    <row r="24" spans="3:9" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="3:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E25" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C26" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="38">
+        <v>0.95369999999999999</v>
+      </c>
+      <c r="F26" s="12">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="G26" s="8">
+        <v>0.92</v>
+      </c>
+      <c r="H26" s="11">
+        <v>0.85780000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C27" s="71"/>
+      <c r="D27" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="39">
+        <v>0.96140000000000003</v>
+      </c>
+      <c r="F27" s="12">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="G27" s="10">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="H27" s="12">
+        <v>0.82379999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="72"/>
+      <c r="D28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="40">
+        <f>(2*E26*E27)/(E26+E27)</f>
+        <v>0.95753452039058018</v>
+      </c>
+      <c r="F28" s="14">
+        <f>(2*F26*F27)/(F26+F27)</f>
+        <v>0.92099565689467977</v>
+      </c>
+      <c r="G28" s="35">
+        <f>(2*G26*G27)/(G26+G27)</f>
+        <v>0.9194997281131051</v>
+      </c>
+      <c r="H28" s="41">
+        <f>(2*H26*H27)/(H26+H27)</f>
+        <v>0.84045627973358705</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C34" s="76"/>
+      <c r="D34" s="76" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="76" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" s="76" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" s="76" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C35" s="76"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="76">
+        <v>7</v>
+      </c>
+      <c r="F35" s="76">
+        <v>6</v>
+      </c>
+      <c r="G35" s="76">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C36" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="76">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="E36" s="76">
+        <f>E35*D36</f>
+        <v>6.7059999999999995</v>
+      </c>
+      <c r="F36" s="76">
+        <f>F35*D36</f>
+        <v>5.7479999999999993</v>
+      </c>
+      <c r="G36" s="76">
+        <f>G35*D36</f>
+        <v>8.6219999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C37" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="76">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="E37" s="76">
+        <f>E35*D37</f>
+        <v>6.4470000000000001</v>
+      </c>
+      <c r="F37" s="76">
+        <f>F35*D37</f>
+        <v>5.5259999999999998</v>
+      </c>
+      <c r="G37" s="76">
+        <f>G35*D37</f>
+        <v>8.2889999999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C38" s="77" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="76">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="E38" s="76">
+        <f>E35*D38</f>
+        <v>6.4329999999999998</v>
+      </c>
+      <c r="F38" s="76">
+        <f>F35*D38</f>
+        <v>5.5140000000000002</v>
+      </c>
+      <c r="G38" s="76">
+        <f>G35*D38</f>
+        <v>8.2710000000000008</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C39" s="77" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="76">
+        <v>0.84</v>
+      </c>
+      <c r="E39" s="76">
+        <f>E35*D39</f>
+        <v>5.88</v>
+      </c>
+      <c r="F39" s="76">
+        <f>F35*D39</f>
+        <v>5.04</v>
+      </c>
+      <c r="G39" s="76">
+        <f>G35*D39</f>
+        <v>7.56</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="G40" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="C26:C28"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="C10:C12"/>
@@ -10599,10 +10813,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C728D34D-020E-874B-8253-7130140C0DEA}">
-  <dimension ref="C2:O33"/>
+  <dimension ref="C2:O44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="C38" sqref="C38:E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10633,7 +10847,7 @@
       </c>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="70" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="32" t="s">
@@ -10653,7 +10867,7 @@
       </c>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C5" s="55"/>
+      <c r="C5" s="71"/>
       <c r="D5" s="33" t="s">
         <v>13</v>
       </c>
@@ -10671,7 +10885,7 @@
       </c>
     </row>
     <row r="6" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="56"/>
+      <c r="C6" s="72"/>
       <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
@@ -10696,7 +10910,7 @@
       </c>
     </row>
     <row r="7" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="73" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="32" t="s">
@@ -10716,7 +10930,7 @@
       </c>
     </row>
     <row r="8" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="58"/>
+      <c r="C8" s="74"/>
       <c r="D8" s="33" t="s">
         <v>13</v>
       </c>
@@ -10738,7 +10952,7 @@
       <c r="O8" s="3"/>
     </row>
     <row r="9" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="59"/>
+      <c r="C9" s="75"/>
       <c r="D9" s="6" t="s">
         <v>7</v>
       </c>
@@ -10759,7 +10973,7 @@
       </c>
     </row>
     <row r="10" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="73" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -10779,7 +10993,7 @@
       </c>
     </row>
     <row r="11" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C11" s="58"/>
+      <c r="C11" s="74"/>
       <c r="D11" s="5" t="s">
         <v>6</v>
       </c>
@@ -10797,7 +11011,7 @@
       </c>
     </row>
     <row r="12" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="59"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="6" t="s">
         <v>9</v>
       </c>
@@ -10815,7 +11029,7 @@
       </c>
     </row>
     <row r="13" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C13" s="57" t="s">
+      <c r="C13" s="73" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="32" t="s">
@@ -10835,7 +11049,7 @@
       </c>
     </row>
     <row r="14" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C14" s="58"/>
+      <c r="C14" s="74"/>
       <c r="D14" s="33" t="s">
         <v>13</v>
       </c>
@@ -10853,7 +11067,7 @@
       </c>
     </row>
     <row r="15" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="59"/>
+      <c r="C15" s="75"/>
       <c r="D15" s="6" t="s">
         <v>7</v>
       </c>
@@ -10875,7 +11089,7 @@
       </c>
     </row>
     <row r="16" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C16" s="57" t="s">
+      <c r="C16" s="73" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="32" t="s">
@@ -10898,7 +11112,7 @@
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C17" s="58"/>
+      <c r="C17" s="74"/>
       <c r="D17" s="33" t="s">
         <v>13</v>
       </c>
@@ -10916,7 +11130,7 @@
       </c>
     </row>
     <row r="18" spans="3:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="59"/>
+      <c r="C18" s="75"/>
       <c r="D18" s="6" t="s">
         <v>7</v>
       </c>
@@ -10982,13 +11196,13 @@
       </c>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C25" s="54" t="s">
+      <c r="C25" s="70" t="s">
         <v>18</v>
       </c>
       <c r="D25" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="60">
+      <c r="E25" s="54">
         <v>0.95369999999999999</v>
       </c>
       <c r="F25" s="12">
@@ -11002,11 +11216,11 @@
       </c>
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C26" s="55"/>
+      <c r="C26" s="71"/>
       <c r="D26" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="61">
+      <c r="E26" s="55">
         <v>0.96140000000000003</v>
       </c>
       <c r="F26" s="12">
@@ -11020,11 +11234,11 @@
       </c>
     </row>
     <row r="27" spans="3:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="56"/>
+      <c r="C27" s="72"/>
       <c r="D27" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="62">
+      <c r="E27" s="56">
         <v>0.876</v>
       </c>
       <c r="F27" s="14">
@@ -11051,12 +11265,12 @@
       <c r="H30" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I30" s="68" t="s">
+      <c r="I30" s="37" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C31" s="54" t="s">
+      <c r="C31" s="70" t="s">
         <v>18</v>
       </c>
       <c r="D31" s="32" t="s">
@@ -11068,18 +11282,18 @@
       <c r="F31" s="12">
         <v>0.92300000000000004</v>
       </c>
-      <c r="G31" s="60">
+      <c r="G31" s="54">
         <v>0.95369999999999999</v>
       </c>
       <c r="H31" s="11">
         <v>0.85780000000000001</v>
       </c>
-      <c r="I31" s="66">
+      <c r="I31" s="51">
         <v>0.98</v>
       </c>
     </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C32" s="55"/>
+      <c r="C32" s="71"/>
       <c r="D32" s="33" t="s">
         <v>13</v>
       </c>
@@ -11089,18 +11303,18 @@
       <c r="F32" s="12">
         <v>0.91900000000000004</v>
       </c>
-      <c r="G32" s="61">
+      <c r="G32" s="55">
         <v>0.96140000000000003</v>
       </c>
       <c r="H32" s="12">
         <v>0.82379999999999998</v>
       </c>
-      <c r="I32" s="66">
+      <c r="I32" s="51">
         <v>0.65</v>
       </c>
     </row>
     <row r="33" spans="3:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="56"/>
+      <c r="C33" s="72"/>
       <c r="D33" s="2" t="s">
         <v>7</v>
       </c>
@@ -11110,7 +11324,7 @@
       <c r="F33" s="14">
         <v>0.92900000000000005</v>
       </c>
-      <c r="G33" s="62">
+      <c r="G33" s="56">
         <v>0.876</v>
       </c>
       <c r="H33" s="41">
@@ -11120,6 +11334,83 @@
         <f>(2*I31*I32)/(I31+I32)</f>
         <v>0.78159509202453992</v>
       </c>
+    </row>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C39" s="76"/>
+      <c r="D39" s="76" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="76"/>
+      <c r="F39" s="78"/>
+      <c r="G39" s="78"/>
+    </row>
+    <row r="40" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C40" s="76"/>
+      <c r="D40" s="76"/>
+      <c r="E40" s="76"/>
+      <c r="F40" s="78"/>
+      <c r="G40" s="78"/>
+    </row>
+    <row r="41" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C41" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="76">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="E41" s="76">
+        <f>(D41*50)-50</f>
+        <v>-3.5499999999999972</v>
+      </c>
+      <c r="F41" s="78"/>
+      <c r="G41" s="78"/>
+    </row>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C42" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="76">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="E42" s="76">
+        <f>(D42*50)-50</f>
+        <v>-3.7999999999999972</v>
+      </c>
+      <c r="F42" s="78"/>
+      <c r="G42" s="78"/>
+    </row>
+    <row r="43" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C43" s="77" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="76">
+        <v>0.876</v>
+      </c>
+      <c r="E43" s="76">
+        <f t="shared" ref="E42:E44" si="3">(D43*50)-50</f>
+        <v>-6.2000000000000028</v>
+      </c>
+      <c r="F43" s="78"/>
+      <c r="G43" s="78"/>
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C44" s="77" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="76">
+        <v>0.877</v>
+      </c>
+      <c r="E44" s="76">
+        <f t="shared" si="3"/>
+        <v>-6.1499999999999986</v>
+      </c>
+      <c r="F44" s="78"/>
+      <c r="G44" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -11139,6 +11430,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDEDEE5A-78D2-1840-A86D-1802D2EB04C7}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="C2:P33"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
@@ -11174,13 +11468,13 @@
       </c>
     </row>
     <row r="4" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="70" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="69"/>
+      <c r="E4" s="61"/>
       <c r="F4" s="38">
         <v>0.95369999999999999</v>
       </c>
@@ -11195,11 +11489,11 @@
       </c>
     </row>
     <row r="5" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C5" s="55"/>
+      <c r="C5" s="71"/>
       <c r="D5" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="70"/>
+      <c r="E5" s="62"/>
       <c r="F5" s="39">
         <v>0.96140000000000003</v>
       </c>
@@ -11214,11 +11508,11 @@
       </c>
     </row>
     <row r="6" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="56"/>
+      <c r="C6" s="72"/>
       <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="71"/>
+      <c r="E6" s="63"/>
       <c r="F6" s="40">
         <f>(2*F4*F5)/(F4+F5)</f>
         <v>0.95753452039058018</v>
@@ -11240,13 +11534,13 @@
       </c>
     </row>
     <row r="7" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="73" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="72"/>
+      <c r="E7" s="64"/>
       <c r="F7" s="36">
         <v>0.92800000000000005</v>
       </c>
@@ -11261,7 +11555,7 @@
       </c>
     </row>
     <row r="8" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="58"/>
+      <c r="C8" s="74"/>
       <c r="D8" s="33" t="s">
         <v>13</v>
       </c>
@@ -11284,11 +11578,11 @@
       <c r="P8" s="3"/>
     </row>
     <row r="9" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="59"/>
+      <c r="C9" s="75"/>
       <c r="D9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="73"/>
+      <c r="E9" s="65"/>
       <c r="F9" s="20">
         <v>0.92900000000000005</v>
       </c>
@@ -11306,7 +11600,7 @@
       </c>
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="73" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -11327,7 +11621,7 @@
       </c>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C11" s="58"/>
+      <c r="C11" s="74"/>
       <c r="D11" s="5" t="s">
         <v>6</v>
       </c>
@@ -11346,7 +11640,7 @@
       </c>
     </row>
     <row r="12" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="59"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="6" t="s">
         <v>9</v>
       </c>
@@ -11365,7 +11659,7 @@
       </c>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C13" s="57" t="s">
+      <c r="C13" s="73" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="32" t="s">
@@ -11386,7 +11680,7 @@
       </c>
     </row>
     <row r="14" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C14" s="58"/>
+      <c r="C14" s="74"/>
       <c r="D14" s="33" t="s">
         <v>13</v>
       </c>
@@ -11405,7 +11699,7 @@
       </c>
     </row>
     <row r="15" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="59"/>
+      <c r="C15" s="75"/>
       <c r="D15" s="6" t="s">
         <v>7</v>
       </c>
@@ -11428,7 +11722,7 @@
       </c>
     </row>
     <row r="16" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C16" s="57" t="s">
+      <c r="C16" s="73" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="32" t="s">
@@ -11452,7 +11746,7 @@
       </c>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C17" s="58"/>
+      <c r="C17" s="74"/>
       <c r="D17" s="33" t="s">
         <v>13</v>
       </c>
@@ -11471,11 +11765,11 @@
       </c>
     </row>
     <row r="18" spans="3:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="59"/>
+      <c r="C18" s="75"/>
       <c r="D18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="73"/>
+      <c r="E18" s="65"/>
       <c r="F18" s="28">
         <f>(2*F16*F17)/(F16+F17)</f>
         <v>0.92774669900296414</v>
@@ -11500,7 +11794,7 @@
       <c r="D19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="74"/>
+      <c r="E19" s="66"/>
       <c r="F19" s="18">
         <v>0.94</v>
       </c>
@@ -11542,7 +11836,7 @@
       </c>
     </row>
     <row r="25" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C25" s="54" t="s">
+      <c r="C25" s="70" t="s">
         <v>1</v>
       </c>
       <c r="D25" s="4" t="s">
@@ -11563,7 +11857,7 @@
       </c>
     </row>
     <row r="26" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C26" s="55"/>
+      <c r="C26" s="71"/>
       <c r="D26" s="5" t="s">
         <v>6</v>
       </c>
@@ -11582,7 +11876,7 @@
       </c>
     </row>
     <row r="27" spans="3:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="56"/>
+      <c r="C27" s="72"/>
       <c r="D27" s="6" t="s">
         <v>9</v>
       </c>
@@ -11602,7 +11896,7 @@
     </row>
     <row r="29" spans="3:10" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="3:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E30" s="68" t="s">
+      <c r="E30" s="37" t="s">
         <v>20</v>
       </c>
       <c r="F30" s="3" t="s">
@@ -11617,12 +11911,12 @@
       <c r="I30" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J30" s="68" t="s">
+      <c r="J30" s="37" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="31" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C31" s="54" t="s">
+      <c r="C31" s="70" t="s">
         <v>1</v>
       </c>
       <c r="D31" s="4" t="s">
@@ -11642,7 +11936,7 @@
       </c>
     </row>
     <row r="32" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C32" s="55"/>
+      <c r="C32" s="71"/>
       <c r="D32" s="5" t="s">
         <v>6</v>
       </c>
@@ -11660,7 +11954,7 @@
       </c>
     </row>
     <row r="33" spans="3:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="56"/>
+      <c r="C33" s="72"/>
       <c r="D33" s="6" t="s">
         <v>9</v>
       </c>
@@ -11701,10 +11995,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED3572A6-A146-874B-BDD7-5DF962A760B9}">
-  <dimension ref="C2:P41"/>
+  <dimension ref="B2:P52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O36" sqref="O36"/>
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11735,7 +12029,7 @@
       </c>
     </row>
     <row r="4" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="70" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="32" t="s">
@@ -11756,7 +12050,7 @@
       </c>
     </row>
     <row r="5" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C5" s="55"/>
+      <c r="C5" s="71"/>
       <c r="D5" s="33" t="s">
         <v>13</v>
       </c>
@@ -11775,7 +12069,7 @@
       </c>
     </row>
     <row r="6" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="56"/>
+      <c r="C6" s="72"/>
       <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
@@ -11791,7 +12085,7 @@
         <f>(2*G4*G5)/(G4+G5)</f>
         <v>0.9194997281131051</v>
       </c>
-      <c r="H6" s="67"/>
+      <c r="H6" s="60"/>
       <c r="I6" s="41">
         <f>(2*I4*I5)/(I4+I5)</f>
         <v>0.84045627973358705</v>
@@ -11801,7 +12095,7 @@
       </c>
     </row>
     <row r="7" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="73" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="32" t="s">
@@ -11822,7 +12116,7 @@
       </c>
     </row>
     <row r="8" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="58"/>
+      <c r="C8" s="74"/>
       <c r="D8" s="33" t="s">
         <v>13</v>
       </c>
@@ -11845,7 +12139,7 @@
       <c r="P8" s="3"/>
     </row>
     <row r="9" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="59"/>
+      <c r="C9" s="75"/>
       <c r="D9" s="6" t="s">
         <v>7</v>
       </c>
@@ -11867,7 +12161,7 @@
       </c>
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="73" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -11888,7 +12182,7 @@
       </c>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C11" s="58"/>
+      <c r="C11" s="74"/>
       <c r="D11" s="5" t="s">
         <v>6</v>
       </c>
@@ -11907,7 +12201,7 @@
       </c>
     </row>
     <row r="12" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="59"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="6" t="s">
         <v>9</v>
       </c>
@@ -11926,7 +12220,7 @@
       </c>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C13" s="57" t="s">
+      <c r="C13" s="73" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="32" t="s">
@@ -11947,7 +12241,7 @@
       </c>
     </row>
     <row r="14" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C14" s="58"/>
+      <c r="C14" s="74"/>
       <c r="D14" s="33" t="s">
         <v>13</v>
       </c>
@@ -11966,7 +12260,7 @@
       </c>
     </row>
     <row r="15" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="59"/>
+      <c r="C15" s="75"/>
       <c r="D15" s="6" t="s">
         <v>7</v>
       </c>
@@ -11989,7 +12283,7 @@
       </c>
     </row>
     <row r="16" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C16" s="57" t="s">
+      <c r="C16" s="73" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="32" t="s">
@@ -12013,7 +12307,7 @@
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C17" s="58"/>
+      <c r="C17" s="74"/>
       <c r="D17" s="33" t="s">
         <v>13</v>
       </c>
@@ -12032,7 +12326,7 @@
       </c>
     </row>
     <row r="18" spans="3:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="59"/>
+      <c r="C18" s="75"/>
       <c r="D18" s="6" t="s">
         <v>7</v>
       </c>
@@ -12101,7 +12395,7 @@
       </c>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C25" s="57" t="s">
+      <c r="C25" s="73" t="s">
         <v>11</v>
       </c>
       <c r="D25" s="32" t="s">
@@ -12117,12 +12411,12 @@
         <v>0.51300000000000001</v>
       </c>
       <c r="H25" s="45"/>
-      <c r="I25" s="63">
+      <c r="I25" s="57">
         <v>0.53</v>
       </c>
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C26" s="58"/>
+      <c r="C26" s="74"/>
       <c r="D26" s="33" t="s">
         <v>13</v>
       </c>
@@ -12136,12 +12430,12 @@
         <v>0.622</v>
       </c>
       <c r="H26" s="47"/>
-      <c r="I26" s="64">
+      <c r="I26" s="58">
         <v>0.67</v>
       </c>
     </row>
     <row r="27" spans="3:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="59"/>
+      <c r="C27" s="75"/>
       <c r="D27" s="6" t="s">
         <v>7</v>
       </c>
@@ -12155,7 +12449,7 @@
         <v>0.58599999999999997</v>
       </c>
       <c r="H27" s="22"/>
-      <c r="I27" s="65">
+      <c r="I27" s="59">
         <v>0.59199999999999997</v>
       </c>
     </row>
@@ -12178,13 +12472,13 @@
       </c>
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C31" s="57" t="s">
+      <c r="C31" s="73" t="s">
         <v>11</v>
       </c>
       <c r="D31" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="63">
+      <c r="E31" s="57">
         <v>0.53</v>
       </c>
       <c r="F31" s="45">
@@ -12201,11 +12495,11 @@
       </c>
     </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C32" s="58"/>
+      <c r="C32" s="74"/>
       <c r="D32" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="64">
+      <c r="E32" s="58">
         <v>0.67</v>
       </c>
       <c r="F32" s="47">
@@ -12221,12 +12515,12 @@
         <v>0.54300000000000004</v>
       </c>
     </row>
-    <row r="33" spans="3:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="59"/>
+    <row r="33" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="75"/>
       <c r="D33" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="65">
+      <c r="E33" s="59">
         <v>0.59199999999999997</v>
       </c>
       <c r="F33" s="22">
@@ -12235,27 +12529,27 @@
       <c r="G33" s="21">
         <v>0.56200000000000006</v>
       </c>
-      <c r="H33" s="77">
+      <c r="H33" s="69">
         <v>0.52800000000000002</v>
       </c>
       <c r="I33" s="24">
         <v>0.51900000000000002</v>
       </c>
     </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="D36" s="68"/>
-    </row>
-    <row r="38" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D36" s="37"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
       <c r="F38" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
       <c r="F39">
         <v>0.55900000000000005</v>
       </c>
     </row>
-    <row r="40" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C40" s="51"/>
       <c r="D40" s="51"/>
       <c r="E40" s="51"/>
@@ -12263,14 +12557,146 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="41" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="F41" s="77">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F41" s="69">
         <f>(2*F39*F40)/(F39+F40)</f>
         <v>0.52785646836638334</v>
       </c>
     </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B43" s="78"/>
+      <c r="C43" s="79" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" s="78"/>
+      <c r="E43" s="78"/>
+      <c r="F43" s="78"/>
+    </row>
+    <row r="44" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="78"/>
+      <c r="C44" s="78"/>
+      <c r="D44" s="78"/>
+      <c r="E44" s="78"/>
+      <c r="F44" s="78"/>
+    </row>
+    <row r="45" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="78"/>
+      <c r="E45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B46" s="78"/>
+      <c r="C46" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="57">
+        <v>0.53</v>
+      </c>
+      <c r="F46" s="45">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="G46" s="19">
+        <v>0.622</v>
+      </c>
+      <c r="H46" s="11">
+        <v>0.57299999999999995</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B47" s="78"/>
+      <c r="C47" s="74"/>
+      <c r="D47" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="58">
+        <v>0.67</v>
+      </c>
+      <c r="F47" s="47">
+        <v>0.622</v>
+      </c>
+      <c r="G47" s="20">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="H47" s="12">
+        <v>0.47499999999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="78"/>
+      <c r="C48" s="75"/>
+      <c r="D48" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="59">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="F48" s="22">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="G48" s="21">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="H48" s="24">
+        <v>0.51900000000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B49" s="78"/>
+      <c r="C49" s="78"/>
+      <c r="D49" s="78"/>
+      <c r="E49" s="78"/>
+      <c r="F49" s="78"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B50" s="78"/>
+      <c r="D50" s="78"/>
+      <c r="E50" s="80">
+        <f>(((E48+E46)-0.2)*150)-150</f>
+        <v>-11.700000000000017</v>
+      </c>
+      <c r="F50" s="80">
+        <f>(((F48+F46)-0.2)*150)-150</f>
+        <v>-15.150000000000006</v>
+      </c>
+      <c r="G50" s="80">
+        <f>(((G48+G47)-0.2)*150)-150</f>
+        <v>-18.749999999999972</v>
+      </c>
+      <c r="H50" s="80">
+        <f>(((H48+H47)-0.2)*150)-150</f>
+        <v>-30.899999999999991</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B51" s="78"/>
+      <c r="C51" s="78"/>
+      <c r="D51" s="78"/>
+      <c r="E51" s="78"/>
+      <c r="F51" s="78"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B52" s="78"/>
+      <c r="C52" s="78"/>
+      <c r="D52" s="78"/>
+      <c r="E52" s="78"/>
+      <c r="F52" s="78"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="C46:C48"/>
     <mergeCell ref="C31:C33"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C7:C9"/>
@@ -12287,10 +12713,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B625046-98F8-E84A-B9FE-D1413F988442}">
-  <dimension ref="C2:P43"/>
+  <dimension ref="C2:P52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:I3"/>
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12321,13 +12747,13 @@
       </c>
     </row>
     <row r="4" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="70" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="69"/>
+      <c r="E4" s="61"/>
       <c r="F4" s="38">
         <v>0.95369999999999999</v>
       </c>
@@ -12342,11 +12768,11 @@
       </c>
     </row>
     <row r="5" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C5" s="55"/>
+      <c r="C5" s="71"/>
       <c r="D5" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="70"/>
+      <c r="E5" s="62"/>
       <c r="F5" s="39">
         <v>0.96140000000000003</v>
       </c>
@@ -12361,11 +12787,11 @@
       </c>
     </row>
     <row r="6" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="56"/>
+      <c r="C6" s="72"/>
       <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="71"/>
+      <c r="E6" s="63"/>
       <c r="F6" s="40">
         <f>(2*F4*F5)/(F4+F5)</f>
         <v>0.95753452039058018</v>
@@ -12387,13 +12813,13 @@
       </c>
     </row>
     <row r="7" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="73" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="72"/>
+      <c r="E7" s="64"/>
       <c r="F7" s="36">
         <v>0.92800000000000005</v>
       </c>
@@ -12408,7 +12834,7 @@
       </c>
     </row>
     <row r="8" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="58"/>
+      <c r="C8" s="74"/>
       <c r="D8" s="33" t="s">
         <v>13</v>
       </c>
@@ -12431,11 +12857,11 @@
       <c r="P8" s="3"/>
     </row>
     <row r="9" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="59"/>
+      <c r="C9" s="75"/>
       <c r="D9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="73"/>
+      <c r="E9" s="65"/>
       <c r="F9" s="20">
         <v>0.92900000000000005</v>
       </c>
@@ -12453,7 +12879,7 @@
       </c>
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="73" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -12474,7 +12900,7 @@
       </c>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C11" s="58"/>
+      <c r="C11" s="74"/>
       <c r="D11" s="5" t="s">
         <v>6</v>
       </c>
@@ -12493,7 +12919,7 @@
       </c>
     </row>
     <row r="12" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="59"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="6" t="s">
         <v>9</v>
       </c>
@@ -12512,7 +12938,7 @@
       </c>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C13" s="57" t="s">
+      <c r="C13" s="73" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="32" t="s">
@@ -12533,7 +12959,7 @@
       </c>
     </row>
     <row r="14" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C14" s="58"/>
+      <c r="C14" s="74"/>
       <c r="D14" s="33" t="s">
         <v>13</v>
       </c>
@@ -12552,7 +12978,7 @@
       </c>
     </row>
     <row r="15" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="59"/>
+      <c r="C15" s="75"/>
       <c r="D15" s="6" t="s">
         <v>7</v>
       </c>
@@ -12575,7 +13001,7 @@
       </c>
     </row>
     <row r="16" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C16" s="57" t="s">
+      <c r="C16" s="73" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="32" t="s">
@@ -12599,7 +13025,7 @@
       </c>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C17" s="58"/>
+      <c r="C17" s="74"/>
       <c r="D17" s="33" t="s">
         <v>13</v>
       </c>
@@ -12618,11 +13044,11 @@
       </c>
     </row>
     <row r="18" spans="3:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="59"/>
+      <c r="C18" s="75"/>
       <c r="D18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="73"/>
+      <c r="E18" s="65"/>
       <c r="F18" s="28">
         <f>(2*F16*F17)/(F16+F17)</f>
         <v>0.92774669900296414</v>
@@ -12647,7 +13073,7 @@
       <c r="D19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="74"/>
+      <c r="E19" s="66"/>
       <c r="F19" s="18">
         <v>0.94</v>
       </c>
@@ -12689,7 +13115,7 @@
       </c>
     </row>
     <row r="25" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C25" s="57" t="s">
+      <c r="C25" s="73" t="s">
         <v>3</v>
       </c>
       <c r="D25" s="32" t="s">
@@ -12705,12 +13131,12 @@
       <c r="H25" s="45">
         <v>0.51300000000000001</v>
       </c>
-      <c r="I25" s="63">
+      <c r="I25" s="57">
         <v>0.53</v>
       </c>
     </row>
     <row r="26" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C26" s="58"/>
+      <c r="C26" s="74"/>
       <c r="D26" s="33" t="s">
         <v>13</v>
       </c>
@@ -12724,12 +13150,12 @@
       <c r="H26" s="47">
         <v>0.622</v>
       </c>
-      <c r="I26" s="64">
+      <c r="I26" s="58">
         <v>0.67</v>
       </c>
     </row>
     <row r="27" spans="3:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="59"/>
+      <c r="C27" s="75"/>
       <c r="D27" s="6" t="s">
         <v>7</v>
       </c>
@@ -12743,7 +13169,7 @@
       <c r="H27" s="22">
         <v>0.90700000000000003</v>
       </c>
-      <c r="I27" s="65">
+      <c r="I27" s="59">
         <v>0.9</v>
       </c>
     </row>
@@ -12761,12 +13187,12 @@
       <c r="I30" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J30" s="68" t="s">
+      <c r="J30" s="37" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="31" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C31" s="57" t="s">
+      <c r="C31" s="73" t="s">
         <v>3</v>
       </c>
       <c r="D31" s="32" t="s">
@@ -12779,7 +13205,7 @@
       <c r="G31" s="45">
         <v>0.51300000000000001</v>
       </c>
-      <c r="H31" s="63">
+      <c r="H31" s="57">
         <v>0.53</v>
       </c>
       <c r="I31" s="19">
@@ -12790,7 +13216,7 @@
       </c>
     </row>
     <row r="32" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C32" s="58"/>
+      <c r="C32" s="74"/>
       <c r="D32" s="33" t="s">
         <v>13</v>
       </c>
@@ -12801,7 +13227,7 @@
       <c r="G32" s="47">
         <v>0.622</v>
       </c>
-      <c r="H32" s="64">
+      <c r="H32" s="58">
         <v>0.67</v>
       </c>
       <c r="I32" s="20">
@@ -12812,24 +13238,24 @@
       </c>
     </row>
     <row r="33" spans="3:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="59"/>
+      <c r="C33" s="75"/>
       <c r="D33" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="76"/>
+      <c r="E33" s="68"/>
       <c r="F33" s="24">
         <v>0.92800000000000005</v>
       </c>
       <c r="G33" s="22">
         <v>0.90700000000000003</v>
       </c>
-      <c r="H33" s="65">
+      <c r="H33" s="59">
         <v>0.9</v>
       </c>
       <c r="I33" s="21">
         <v>0.80800000000000005</v>
       </c>
-      <c r="J33" s="75">
+      <c r="J33" s="67">
         <v>0.73499999999999999</v>
       </c>
     </row>
@@ -12837,10 +13263,10 @@
       <c r="C37" t="s">
         <v>21</v>
       </c>
-      <c r="D37" s="68" t="s">
+      <c r="D37" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="E37" s="68"/>
+      <c r="E37" s="37"/>
       <c r="F37" t="s">
         <v>7</v>
       </c>
@@ -12903,6 +13329,71 @@
       <c r="C43">
         <f>(2*C41*C42)/(C41+C42)</f>
         <v>0.73553710691823915</v>
+      </c>
+    </row>
+    <row r="46" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C47" s="76"/>
+      <c r="D47" s="76" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="76"/>
+    </row>
+    <row r="48" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C48" s="76"/>
+      <c r="D48" s="76"/>
+      <c r="E48" s="76"/>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C49" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="76">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="E49" s="76">
+        <f>(D49*50)-50</f>
+        <v>-9.5999999999999943</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C50" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="76">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="E50" s="76">
+        <f>(D50*50)-50</f>
+        <v>-3.5999999999999943</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C51" s="77" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" s="76">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="E51" s="76">
+        <f t="shared" ref="E51:E52" si="4">(D51*50)-50</f>
+        <v>-4.6499999999999986</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C52" s="77" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" s="76">
+        <v>0.9</v>
+      </c>
+      <c r="E52" s="76">
+        <f t="shared" si="4"/>
+        <v>-5</v>
       </c>
     </row>
   </sheetData>
@@ -12935,10 +13426,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DF3BFBF-1939-D24D-9B02-EE9193637D04}">
-  <dimension ref="C2:O33"/>
+  <dimension ref="C2:O44"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12968,7 +13459,7 @@
       </c>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="70" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="32" t="s">
@@ -12988,7 +13479,7 @@
       </c>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C5" s="55"/>
+      <c r="C5" s="71"/>
       <c r="D5" s="33" t="s">
         <v>13</v>
       </c>
@@ -13006,7 +13497,7 @@
       </c>
     </row>
     <row r="6" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="56"/>
+      <c r="C6" s="72"/>
       <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
@@ -13031,7 +13522,7 @@
       </c>
     </row>
     <row r="7" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="73" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="32" t="s">
@@ -13051,7 +13542,7 @@
       </c>
     </row>
     <row r="8" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="58"/>
+      <c r="C8" s="74"/>
       <c r="D8" s="33" t="s">
         <v>13</v>
       </c>
@@ -13073,7 +13564,7 @@
       <c r="O8" s="3"/>
     </row>
     <row r="9" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="59"/>
+      <c r="C9" s="75"/>
       <c r="D9" s="6" t="s">
         <v>7</v>
       </c>
@@ -13094,7 +13585,7 @@
       </c>
     </row>
     <row r="10" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="73" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -13114,7 +13605,7 @@
       </c>
     </row>
     <row r="11" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C11" s="58"/>
+      <c r="C11" s="74"/>
       <c r="D11" s="5" t="s">
         <v>6</v>
       </c>
@@ -13132,7 +13623,7 @@
       </c>
     </row>
     <row r="12" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="59"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="6" t="s">
         <v>9</v>
       </c>
@@ -13150,7 +13641,7 @@
       </c>
     </row>
     <row r="13" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C13" s="57" t="s">
+      <c r="C13" s="73" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="32" t="s">
@@ -13170,7 +13661,7 @@
       </c>
     </row>
     <row r="14" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C14" s="58"/>
+      <c r="C14" s="74"/>
       <c r="D14" s="33" t="s">
         <v>13</v>
       </c>
@@ -13188,7 +13679,7 @@
       </c>
     </row>
     <row r="15" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="59"/>
+      <c r="C15" s="75"/>
       <c r="D15" s="6" t="s">
         <v>7</v>
       </c>
@@ -13210,7 +13701,7 @@
       </c>
     </row>
     <row r="16" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C16" s="57" t="s">
+      <c r="C16" s="73" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="32" t="s">
@@ -13233,7 +13724,7 @@
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C17" s="58"/>
+      <c r="C17" s="74"/>
       <c r="D17" s="33" t="s">
         <v>13</v>
       </c>
@@ -13251,7 +13742,7 @@
       </c>
     </row>
     <row r="18" spans="3:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="59"/>
+      <c r="C18" s="75"/>
       <c r="D18" s="6" t="s">
         <v>7</v>
       </c>
@@ -13317,7 +13808,7 @@
       </c>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C25" s="57" t="s">
+      <c r="C25" s="73" t="s">
         <v>3</v>
       </c>
       <c r="D25" s="32" t="s">
@@ -13332,12 +13823,12 @@
       <c r="G25" s="45">
         <v>0.51300000000000001</v>
       </c>
-      <c r="H25" s="63">
+      <c r="H25" s="57">
         <v>0.53</v>
       </c>
     </row>
     <row r="26" spans="3:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="58"/>
+      <c r="C26" s="74"/>
       <c r="D26" s="33" t="s">
         <v>13</v>
       </c>
@@ -13350,12 +13841,12 @@
       <c r="G26" s="47">
         <v>0.622</v>
       </c>
-      <c r="H26" s="64">
+      <c r="H26" s="58">
         <v>0.67</v>
       </c>
     </row>
     <row r="27" spans="3:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="59"/>
+      <c r="C27" s="75"/>
       <c r="D27" s="3" t="s">
         <v>10</v>
       </c>
@@ -13368,7 +13859,7 @@
       <c r="G27" s="22">
         <v>0.97699999999999998</v>
       </c>
-      <c r="H27" s="65">
+      <c r="H27" s="59">
         <v>0.96499999999999997</v>
       </c>
     </row>
@@ -13391,45 +13882,25 @@
       </c>
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C31" s="57" t="s">
-        <v>3</v>
-      </c>
-      <c r="D31" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="19">
-        <v>0.47470000000000001</v>
-      </c>
-      <c r="F31" s="45">
-        <v>0.51300000000000001</v>
-      </c>
-      <c r="G31" s="63">
-        <v>0.53</v>
-      </c>
-      <c r="H31" s="11">
-        <v>0.63700000000000001</v>
-      </c>
+      <c r="C31" s="73" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="32"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="11"/>
     </row>
     <row r="32" spans="3:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="58"/>
-      <c r="D32" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" s="20">
-        <v>0.57250000000000001</v>
-      </c>
-      <c r="F32" s="47">
-        <v>0.622</v>
-      </c>
-      <c r="G32" s="64">
-        <v>0.67</v>
-      </c>
-      <c r="H32" s="12">
-        <v>0.54300000000000004</v>
-      </c>
+      <c r="C32" s="74"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="12"/>
     </row>
     <row r="33" spans="3:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="59"/>
+      <c r="C33" s="75"/>
       <c r="D33" s="3" t="s">
         <v>10</v>
       </c>
@@ -13439,14 +13910,79 @@
       <c r="F33" s="22">
         <v>0.97699999999999998</v>
       </c>
-      <c r="G33" s="65">
+      <c r="G33" s="59">
         <v>0.96499999999999997</v>
       </c>
       <c r="H33" s="24">
         <v>0.94</v>
       </c>
-      <c r="I33" s="77">
+      <c r="I33" s="69">
         <v>0.78</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D39" s="76"/>
+      <c r="E39" s="76" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="76"/>
+    </row>
+    <row r="40" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D40" s="76"/>
+      <c r="E40" s="76"/>
+      <c r="F40" s="76"/>
+    </row>
+    <row r="41" spans="3:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D41" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="21">
+        <v>0.98</v>
+      </c>
+      <c r="F41" s="76">
+        <f>50-(E41*50)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D42" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="76">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="F42" s="76">
+        <f t="shared" ref="F42:F44" si="3">50-(E42*50)</f>
+        <v>3.5999999999999943</v>
+      </c>
+    </row>
+    <row r="43" spans="3:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D43" s="77" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="22">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="F43" s="76">
+        <f t="shared" si="3"/>
+        <v>1.1499999999999986</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D44" s="77" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="59">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="F44" s="76">
+        <f t="shared" si="3"/>
+        <v>1.75</v>
       </c>
     </row>
   </sheetData>
@@ -13469,7 +14005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AA2618-4021-694C-8A1F-02995639E3C7}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>

--- a/other documentation/report_rezultatov_v1.xlsx
+++ b/other documentation/report_rezultatov_v1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/r.grilj/Documents/GitHub/BMA_roma_MAG/other documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570D5941-9D79-A94F-B7B2-84BB5DF96D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C7BC65-E32D-AE47-9C14-041DD69945E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-39820" yWindow="-840" windowWidth="34560" windowHeight="23220" activeTab="7" xr2:uid="{7C5033A3-0CD7-46B1-9957-C1698C274436}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20320" xr2:uid="{7C5033A3-0CD7-46B1-9957-C1698C274436}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,8 @@
     <sheet name="summarization" sheetId="5" r:id="rId4"/>
     <sheet name="key pharses" sheetId="6" r:id="rId5"/>
     <sheet name="text classification" sheetId="7" r:id="rId6"/>
-    <sheet name="Sheet8" sheetId="9" r:id="rId7"/>
-    <sheet name="object detection" sheetId="8" r:id="rId8"/>
+    <sheet name="object detection" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="9" r:id="rId8"/>
     <sheet name="Sheet9" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="35">
   <si>
     <t>Sentiment Analaysis</t>
   </si>
@@ -141,6 +141,12 @@
   </si>
   <si>
     <t>ANALIZA NAPAK</t>
+  </si>
+  <si>
+    <t>Precission</t>
+  </si>
+  <si>
+    <t>Hugging Face Transformers</t>
   </si>
 </sst>
 </file>
@@ -571,7 +577,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -684,6 +690,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -702,11 +710,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -1319,7 +1323,7 @@
                   <c:v>AWS  SageMaker</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Transformers</c:v>
+                  <c:v>Hugging Face Transformers</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Google Vertex AI</c:v>
@@ -1731,7 +1735,7 @@
                   <c:v>Google Vertex AI</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Transformers</c:v>
+                  <c:v>Hugging Face Transformers</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>AWS  SageMaker</c:v>
@@ -2147,7 +2151,7 @@
                   <c:v>AWS  SageMaker</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Transformers</c:v>
+                  <c:v>Hugging Face Transformers</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2554,7 +2558,7 @@
                   <c:v>Rezultati članka</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Transformers</c:v>
+                  <c:v>Hugging Face Transformers</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2949,7 +2953,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Transformers</c:v>
+                  <c:v>Hugging Face Transformers</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Google Vertex AI</c:v>
@@ -3368,7 +3372,7 @@
                   <c:v>Azure  Services</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Transformers</c:v>
+                  <c:v>Hugging Face Transformers</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Rezultati članka</c:v>
@@ -9404,16 +9408,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1397000</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9826,7 +9830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E8C6375-E179-457B-8079-F11912284CFE}">
   <dimension ref="C2:O22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
@@ -9857,7 +9861,7 @@
       </c>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="72" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="32" t="s">
@@ -9877,7 +9881,7 @@
       </c>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C5" s="71"/>
+      <c r="C5" s="73"/>
       <c r="D5" s="33" t="s">
         <v>13</v>
       </c>
@@ -9895,7 +9899,7 @@
       </c>
     </row>
     <row r="6" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="72"/>
+      <c r="C6" s="74"/>
       <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
@@ -9920,7 +9924,7 @@
       </c>
     </row>
     <row r="7" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="75" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="32" t="s">
@@ -9940,7 +9944,7 @@
       </c>
     </row>
     <row r="8" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="74"/>
+      <c r="C8" s="76"/>
       <c r="D8" s="33" t="s">
         <v>13</v>
       </c>
@@ -9962,7 +9966,7 @@
       <c r="O8" s="3"/>
     </row>
     <row r="9" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="75"/>
+      <c r="C9" s="77"/>
       <c r="D9" s="6" t="s">
         <v>7</v>
       </c>
@@ -9983,7 +9987,7 @@
       </c>
     </row>
     <row r="10" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C10" s="73" t="s">
+      <c r="C10" s="75" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -10003,7 +10007,7 @@
       </c>
     </row>
     <row r="11" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C11" s="74"/>
+      <c r="C11" s="76"/>
       <c r="D11" s="5" t="s">
         <v>6</v>
       </c>
@@ -10021,7 +10025,7 @@
       </c>
     </row>
     <row r="12" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="75"/>
+      <c r="C12" s="77"/>
       <c r="D12" s="6" t="s">
         <v>9</v>
       </c>
@@ -10039,7 +10043,7 @@
       </c>
     </row>
     <row r="13" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C13" s="73" t="s">
+      <c r="C13" s="75" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="32" t="s">
@@ -10059,7 +10063,7 @@
       </c>
     </row>
     <row r="14" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C14" s="74"/>
+      <c r="C14" s="76"/>
       <c r="D14" s="33" t="s">
         <v>13</v>
       </c>
@@ -10077,7 +10081,7 @@
       </c>
     </row>
     <row r="15" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="75"/>
+      <c r="C15" s="77"/>
       <c r="D15" s="6" t="s">
         <v>7</v>
       </c>
@@ -10099,7 +10103,7 @@
       </c>
     </row>
     <row r="16" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C16" s="73" t="s">
+      <c r="C16" s="75" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="32" t="s">
@@ -10119,7 +10123,7 @@
       </c>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C17" s="74"/>
+      <c r="C17" s="76"/>
       <c r="D17" s="33" t="s">
         <v>13</v>
       </c>
@@ -10137,7 +10141,7 @@
       </c>
     </row>
     <row r="18" spans="3:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="75"/>
+      <c r="C18" s="77"/>
       <c r="D18" s="6" t="s">
         <v>7</v>
       </c>
@@ -10206,7 +10210,7 @@
   <dimension ref="C2:P40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33:G39"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10226,7 +10230,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="G3" s="34" t="s">
         <v>14</v>
@@ -10242,7 +10246,7 @@
       </c>
     </row>
     <row r="4" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="72" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="32" t="s">
@@ -10268,7 +10272,7 @@
       </c>
     </row>
     <row r="5" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C5" s="71"/>
+      <c r="C5" s="73"/>
       <c r="D5" s="33" t="s">
         <v>13</v>
       </c>
@@ -10292,7 +10296,7 @@
       </c>
     </row>
     <row r="6" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="72"/>
+      <c r="C6" s="74"/>
       <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
@@ -10323,7 +10327,7 @@
       </c>
     </row>
     <row r="7" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="75" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="32" t="s">
@@ -10344,7 +10348,7 @@
       </c>
     </row>
     <row r="8" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="74"/>
+      <c r="C8" s="76"/>
       <c r="D8" s="33" t="s">
         <v>13</v>
       </c>
@@ -10367,7 +10371,7 @@
       <c r="P8" s="3"/>
     </row>
     <row r="9" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="75"/>
+      <c r="C9" s="77"/>
       <c r="D9" s="6" t="s">
         <v>7</v>
       </c>
@@ -10389,7 +10393,7 @@
       </c>
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C10" s="73" t="s">
+      <c r="C10" s="75" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -10410,7 +10414,7 @@
       </c>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C11" s="74"/>
+      <c r="C11" s="76"/>
       <c r="D11" s="5" t="s">
         <v>6</v>
       </c>
@@ -10429,7 +10433,7 @@
       </c>
     </row>
     <row r="12" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="75"/>
+      <c r="C12" s="77"/>
       <c r="D12" s="6" t="s">
         <v>9</v>
       </c>
@@ -10448,7 +10452,7 @@
       </c>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C13" s="73" t="s">
+      <c r="C13" s="75" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="32" t="s">
@@ -10469,7 +10473,7 @@
       </c>
     </row>
     <row r="14" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C14" s="74"/>
+      <c r="C14" s="76"/>
       <c r="D14" s="33" t="s">
         <v>13</v>
       </c>
@@ -10488,7 +10492,7 @@
       </c>
     </row>
     <row r="15" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="75"/>
+      <c r="C15" s="77"/>
       <c r="D15" s="6" t="s">
         <v>7</v>
       </c>
@@ -10511,7 +10515,7 @@
       </c>
     </row>
     <row r="16" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C16" s="73" t="s">
+      <c r="C16" s="75" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="32" t="s">
@@ -10532,7 +10536,7 @@
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C17" s="74"/>
+      <c r="C17" s="76"/>
       <c r="D17" s="33" t="s">
         <v>13</v>
       </c>
@@ -10551,7 +10555,7 @@
       </c>
     </row>
     <row r="18" spans="3:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="75"/>
+      <c r="C18" s="77"/>
       <c r="D18" s="6" t="s">
         <v>7</v>
       </c>
@@ -10609,7 +10613,7 @@
         <v>19</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="G25" s="34" t="s">
         <v>14</v>
@@ -10619,7 +10623,7 @@
       </c>
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C26" s="70" t="s">
+      <c r="C26" s="72" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="32" t="s">
@@ -10639,7 +10643,7 @@
       </c>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C27" s="71"/>
+      <c r="C27" s="73"/>
       <c r="D27" s="33" t="s">
         <v>13</v>
       </c>
@@ -10657,7 +10661,7 @@
       </c>
     </row>
     <row r="28" spans="3:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="72"/>
+      <c r="C28" s="74"/>
       <c r="D28" s="2" t="s">
         <v>7</v>
       </c>
@@ -10678,120 +10682,143 @@
         <v>0.84045627973358705</v>
       </c>
     </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C34" s="76"/>
-      <c r="D34" s="76" t="s">
+      <c r="D33">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C34" s="70"/>
+      <c r="D34" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" s="70" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C35" s="70"/>
+      <c r="D35" s="70"/>
+      <c r="E35" s="70">
         <v>7</v>
       </c>
-      <c r="E34" s="76" t="s">
-        <v>27</v>
-      </c>
-      <c r="F34" s="76" t="s">
-        <v>28</v>
-      </c>
-      <c r="G34" s="76" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C35" s="76"/>
-      <c r="D35" s="76"/>
-      <c r="E35" s="76">
-        <v>7</v>
-      </c>
-      <c r="F35" s="76">
+      <c r="F35" s="70">
         <v>6</v>
       </c>
-      <c r="G35" s="76">
+      <c r="G35" s="70">
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C36" s="77" t="s">
+    <row r="36" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C36" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="76">
-        <v>0.95799999999999996</v>
-      </c>
-      <c r="E36" s="76">
+      <c r="D36" s="78">
+        <f>E4</f>
+        <v>0.95369999999999999</v>
+      </c>
+      <c r="E36" s="70">
         <f>E35*D36</f>
-        <v>6.7059999999999995</v>
-      </c>
-      <c r="F36" s="76">
+        <v>6.6759000000000004</v>
+      </c>
+      <c r="F36" s="70">
         <f>F35*D36</f>
-        <v>5.7479999999999993</v>
-      </c>
-      <c r="G36" s="76">
+        <v>5.7222</v>
+      </c>
+      <c r="G36" s="70">
         <f>G35*D36</f>
-        <v>8.6219999999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C37" s="77" t="s">
+        <v>8.5832999999999995</v>
+      </c>
+      <c r="H36">
+        <f>D33-(D33*D36)</f>
+        <v>2.3149999999999977</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C37" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="76">
-        <v>0.92100000000000004</v>
-      </c>
-      <c r="E37" s="76">
+      <c r="D37" s="78">
+        <f>F4</f>
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="E37" s="70">
         <f>E35*D37</f>
-        <v>6.4470000000000001</v>
-      </c>
-      <c r="F37" s="76">
+        <v>6.4610000000000003</v>
+      </c>
+      <c r="F37" s="70">
         <f>F35*D37</f>
-        <v>5.5259999999999998</v>
-      </c>
-      <c r="G37" s="76">
+        <v>5.5380000000000003</v>
+      </c>
+      <c r="G37" s="70">
         <f>G35*D37</f>
-        <v>8.2889999999999997</v>
-      </c>
-    </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C38" s="77" t="s">
+        <v>8.3070000000000004</v>
+      </c>
+      <c r="H37">
+        <f>D33-(D33*D37)</f>
+        <v>3.8499999999999943</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C38" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="76">
-        <v>0.91900000000000004</v>
-      </c>
-      <c r="E38" s="76">
+      <c r="D38" s="78">
+        <f>G4</f>
+        <v>0.92</v>
+      </c>
+      <c r="E38" s="70">
         <f>E35*D38</f>
-        <v>6.4329999999999998</v>
-      </c>
-      <c r="F38" s="76">
+        <v>6.44</v>
+      </c>
+      <c r="F38" s="70">
         <f>F35*D38</f>
-        <v>5.5140000000000002</v>
-      </c>
-      <c r="G38" s="76">
+        <v>5.5200000000000005</v>
+      </c>
+      <c r="G38" s="70">
         <f>G35*D38</f>
-        <v>8.2710000000000008</v>
-      </c>
-    </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C39" s="77" t="s">
+        <v>8.2800000000000011</v>
+      </c>
+      <c r="H38">
+        <f>D33-(D33*D38)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C39" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="D39" s="76">
-        <v>0.84</v>
-      </c>
-      <c r="E39" s="76">
+      <c r="D39" s="78">
+        <f>I4</f>
+        <v>0.85780000000000001</v>
+      </c>
+      <c r="E39" s="70">
         <f>E35*D39</f>
-        <v>5.88</v>
-      </c>
-      <c r="F39" s="76">
+        <v>6.0045999999999999</v>
+      </c>
+      <c r="F39" s="70">
         <f>F35*D39</f>
-        <v>5.04</v>
-      </c>
-      <c r="G39" s="76">
+        <v>5.1467999999999998</v>
+      </c>
+      <c r="G39" s="70">
         <f>G35*D39</f>
-        <v>7.56</v>
-      </c>
-    </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.2">
+        <v>7.7202000000000002</v>
+      </c>
+      <c r="H39">
+        <f>D33-(D33*D39)</f>
+        <v>7.1099999999999994</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.2">
       <c r="G40" t="s">
         <v>30</v>
       </c>
@@ -10816,7 +10843,7 @@
   <dimension ref="C2:O44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38:E45"/>
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10847,7 +10874,7 @@
       </c>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="72" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="32" t="s">
@@ -10867,7 +10894,7 @@
       </c>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C5" s="71"/>
+      <c r="C5" s="73"/>
       <c r="D5" s="33" t="s">
         <v>13</v>
       </c>
@@ -10885,7 +10912,7 @@
       </c>
     </row>
     <row r="6" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="72"/>
+      <c r="C6" s="74"/>
       <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
@@ -10910,7 +10937,7 @@
       </c>
     </row>
     <row r="7" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="75" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="32" t="s">
@@ -10930,7 +10957,7 @@
       </c>
     </row>
     <row r="8" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="74"/>
+      <c r="C8" s="76"/>
       <c r="D8" s="33" t="s">
         <v>13</v>
       </c>
@@ -10952,7 +10979,7 @@
       <c r="O8" s="3"/>
     </row>
     <row r="9" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="75"/>
+      <c r="C9" s="77"/>
       <c r="D9" s="6" t="s">
         <v>7</v>
       </c>
@@ -10973,7 +11000,7 @@
       </c>
     </row>
     <row r="10" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C10" s="73" t="s">
+      <c r="C10" s="75" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -10993,7 +11020,7 @@
       </c>
     </row>
     <row r="11" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C11" s="74"/>
+      <c r="C11" s="76"/>
       <c r="D11" s="5" t="s">
         <v>6</v>
       </c>
@@ -11011,7 +11038,7 @@
       </c>
     </row>
     <row r="12" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="75"/>
+      <c r="C12" s="77"/>
       <c r="D12" s="6" t="s">
         <v>9</v>
       </c>
@@ -11029,7 +11056,7 @@
       </c>
     </row>
     <row r="13" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C13" s="73" t="s">
+      <c r="C13" s="75" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="32" t="s">
@@ -11049,7 +11076,7 @@
       </c>
     </row>
     <row r="14" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C14" s="74"/>
+      <c r="C14" s="76"/>
       <c r="D14" s="33" t="s">
         <v>13</v>
       </c>
@@ -11067,7 +11094,7 @@
       </c>
     </row>
     <row r="15" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="75"/>
+      <c r="C15" s="77"/>
       <c r="D15" s="6" t="s">
         <v>7</v>
       </c>
@@ -11089,7 +11116,7 @@
       </c>
     </row>
     <row r="16" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C16" s="73" t="s">
+      <c r="C16" s="75" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="32" t="s">
@@ -11112,7 +11139,7 @@
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C17" s="74"/>
+      <c r="C17" s="76"/>
       <c r="D17" s="33" t="s">
         <v>13</v>
       </c>
@@ -11130,7 +11157,7 @@
       </c>
     </row>
     <row r="18" spans="3:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="75"/>
+      <c r="C18" s="77"/>
       <c r="D18" s="6" t="s">
         <v>7</v>
       </c>
@@ -11196,7 +11223,7 @@
       </c>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C25" s="70" t="s">
+      <c r="C25" s="72" t="s">
         <v>18</v>
       </c>
       <c r="D25" s="32" t="s">
@@ -11216,7 +11243,7 @@
       </c>
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C26" s="71"/>
+      <c r="C26" s="73"/>
       <c r="D26" s="33" t="s">
         <v>13</v>
       </c>
@@ -11234,7 +11261,7 @@
       </c>
     </row>
     <row r="27" spans="3:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="72"/>
+      <c r="C27" s="74"/>
       <c r="D27" s="2" t="s">
         <v>7</v>
       </c>
@@ -11257,7 +11284,7 @@
         <v>14</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>19</v>
@@ -11270,7 +11297,7 @@
       </c>
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C31" s="70" t="s">
+      <c r="C31" s="72" t="s">
         <v>18</v>
       </c>
       <c r="D31" s="32" t="s">
@@ -11293,7 +11320,7 @@
       </c>
     </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C32" s="71"/>
+      <c r="C32" s="73"/>
       <c r="D32" s="33" t="s">
         <v>13</v>
       </c>
@@ -11314,7 +11341,7 @@
       </c>
     </row>
     <row r="33" spans="3:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="72"/>
+      <c r="C33" s="74"/>
       <c r="D33" s="2" t="s">
         <v>7</v>
       </c>
@@ -11341,76 +11368,64 @@
       </c>
     </row>
     <row r="39" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C39" s="76"/>
-      <c r="D39" s="76" t="s">
+      <c r="C39" s="70"/>
+      <c r="D39" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="E39" s="76"/>
-      <c r="F39" s="78"/>
-      <c r="G39" s="78"/>
+      <c r="E39" s="70"/>
     </row>
     <row r="40" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C40" s="76"/>
-      <c r="D40" s="76"/>
-      <c r="E40" s="76"/>
-      <c r="F40" s="78"/>
-      <c r="G40" s="78"/>
+      <c r="C40" s="70"/>
+      <c r="D40" s="70"/>
+      <c r="E40" s="70"/>
     </row>
     <row r="41" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C41" s="77" t="s">
+      <c r="C41" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="76">
+      <c r="D41" s="70">
         <v>0.92900000000000005</v>
       </c>
-      <c r="E41" s="76">
+      <c r="E41" s="70">
         <f>(D41*50)-50</f>
         <v>-3.5499999999999972</v>
       </c>
-      <c r="F41" s="78"/>
-      <c r="G41" s="78"/>
     </row>
     <row r="42" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C42" s="77" t="s">
+      <c r="C42" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="D42" s="76">
+      <c r="D42" s="70">
         <v>0.92400000000000004</v>
       </c>
-      <c r="E42" s="76">
+      <c r="E42" s="70">
         <f>(D42*50)-50</f>
         <v>-3.7999999999999972</v>
       </c>
-      <c r="F42" s="78"/>
-      <c r="G42" s="78"/>
     </row>
     <row r="43" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C43" s="77" t="s">
+      <c r="C43" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="D43" s="76">
+      <c r="D43" s="70">
         <v>0.876</v>
       </c>
-      <c r="E43" s="76">
-        <f t="shared" ref="E42:E44" si="3">(D43*50)-50</f>
+      <c r="E43" s="70">
+        <f t="shared" ref="E43:E44" si="3">(D43*50)-50</f>
         <v>-6.2000000000000028</v>
       </c>
-      <c r="F43" s="78"/>
-      <c r="G43" s="78"/>
     </row>
     <row r="44" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C44" s="77" t="s">
+      <c r="C44" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="D44" s="76">
+      <c r="D44" s="70">
         <v>0.877</v>
       </c>
-      <c r="E44" s="76">
+      <c r="E44" s="70">
         <f t="shared" si="3"/>
         <v>-6.1499999999999986</v>
       </c>
-      <c r="F44" s="78"/>
-      <c r="G44" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -11436,7 +11451,7 @@
   <dimension ref="C2:P33"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11458,7 +11473,7 @@
         <v>15</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="H3" s="34" t="s">
         <v>14</v>
@@ -11468,7 +11483,7 @@
       </c>
     </row>
     <row r="4" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="72" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="32" t="s">
@@ -11489,7 +11504,7 @@
       </c>
     </row>
     <row r="5" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C5" s="71"/>
+      <c r="C5" s="73"/>
       <c r="D5" s="33" t="s">
         <v>13</v>
       </c>
@@ -11508,7 +11523,7 @@
       </c>
     </row>
     <row r="6" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="72"/>
+      <c r="C6" s="74"/>
       <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
@@ -11534,7 +11549,7 @@
       </c>
     </row>
     <row r="7" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="75" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="32" t="s">
@@ -11555,7 +11570,7 @@
       </c>
     </row>
     <row r="8" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="74"/>
+      <c r="C8" s="76"/>
       <c r="D8" s="33" t="s">
         <v>13</v>
       </c>
@@ -11578,7 +11593,7 @@
       <c r="P8" s="3"/>
     </row>
     <row r="9" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="75"/>
+      <c r="C9" s="77"/>
       <c r="D9" s="6" t="s">
         <v>7</v>
       </c>
@@ -11600,7 +11615,7 @@
       </c>
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C10" s="73" t="s">
+      <c r="C10" s="75" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -11621,7 +11636,7 @@
       </c>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C11" s="74"/>
+      <c r="C11" s="76"/>
       <c r="D11" s="5" t="s">
         <v>6</v>
       </c>
@@ -11640,7 +11655,7 @@
       </c>
     </row>
     <row r="12" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="75"/>
+      <c r="C12" s="77"/>
       <c r="D12" s="6" t="s">
         <v>9</v>
       </c>
@@ -11659,7 +11674,7 @@
       </c>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C13" s="73" t="s">
+      <c r="C13" s="75" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="32" t="s">
@@ -11680,7 +11695,7 @@
       </c>
     </row>
     <row r="14" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C14" s="74"/>
+      <c r="C14" s="76"/>
       <c r="D14" s="33" t="s">
         <v>13</v>
       </c>
@@ -11699,7 +11714,7 @@
       </c>
     </row>
     <row r="15" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="75"/>
+      <c r="C15" s="77"/>
       <c r="D15" s="6" t="s">
         <v>7</v>
       </c>
@@ -11722,7 +11737,7 @@
       </c>
     </row>
     <row r="16" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C16" s="73" t="s">
+      <c r="C16" s="75" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="32" t="s">
@@ -11746,7 +11761,7 @@
       </c>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C17" s="74"/>
+      <c r="C17" s="76"/>
       <c r="D17" s="33" t="s">
         <v>13</v>
       </c>
@@ -11765,7 +11780,7 @@
       </c>
     </row>
     <row r="18" spans="3:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="75"/>
+      <c r="C18" s="77"/>
       <c r="D18" s="6" t="s">
         <v>7</v>
       </c>
@@ -11826,7 +11841,7 @@
         <v>15</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="H24" s="34" t="s">
         <v>14</v>
@@ -11836,7 +11851,7 @@
       </c>
     </row>
     <row r="25" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C25" s="70" t="s">
+      <c r="C25" s="72" t="s">
         <v>1</v>
       </c>
       <c r="D25" s="4" t="s">
@@ -11857,7 +11872,7 @@
       </c>
     </row>
     <row r="26" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C26" s="71"/>
+      <c r="C26" s="73"/>
       <c r="D26" s="5" t="s">
         <v>6</v>
       </c>
@@ -11876,7 +11891,7 @@
       </c>
     </row>
     <row r="27" spans="3:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="72"/>
+      <c r="C27" s="74"/>
       <c r="D27" s="6" t="s">
         <v>9</v>
       </c>
@@ -11909,14 +11924,14 @@
         <v>19</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="J30" s="37" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="31" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C31" s="70" t="s">
+      <c r="C31" s="72" t="s">
         <v>1</v>
       </c>
       <c r="D31" s="4" t="s">
@@ -11936,7 +11951,7 @@
       </c>
     </row>
     <row r="32" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C32" s="71"/>
+      <c r="C32" s="73"/>
       <c r="D32" s="5" t="s">
         <v>6</v>
       </c>
@@ -11954,7 +11969,7 @@
       </c>
     </row>
     <row r="33" spans="3:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="72"/>
+      <c r="C33" s="74"/>
       <c r="D33" s="6" t="s">
         <v>9</v>
       </c>
@@ -11995,10 +12010,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED3572A6-A146-874B-BDD7-5DF962A760B9}">
-  <dimension ref="B2:P52"/>
+  <dimension ref="C2:P50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12029,7 +12044,7 @@
       </c>
     </row>
     <row r="4" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="72" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="32" t="s">
@@ -12050,7 +12065,7 @@
       </c>
     </row>
     <row r="5" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C5" s="71"/>
+      <c r="C5" s="73"/>
       <c r="D5" s="33" t="s">
         <v>13</v>
       </c>
@@ -12069,7 +12084,7 @@
       </c>
     </row>
     <row r="6" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="72"/>
+      <c r="C6" s="74"/>
       <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
@@ -12095,7 +12110,7 @@
       </c>
     </row>
     <row r="7" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="75" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="32" t="s">
@@ -12116,7 +12131,7 @@
       </c>
     </row>
     <row r="8" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="74"/>
+      <c r="C8" s="76"/>
       <c r="D8" s="33" t="s">
         <v>13</v>
       </c>
@@ -12139,7 +12154,7 @@
       <c r="P8" s="3"/>
     </row>
     <row r="9" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="75"/>
+      <c r="C9" s="77"/>
       <c r="D9" s="6" t="s">
         <v>7</v>
       </c>
@@ -12161,7 +12176,7 @@
       </c>
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C10" s="73" t="s">
+      <c r="C10" s="75" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -12182,7 +12197,7 @@
       </c>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C11" s="74"/>
+      <c r="C11" s="76"/>
       <c r="D11" s="5" t="s">
         <v>6</v>
       </c>
@@ -12201,7 +12216,7 @@
       </c>
     </row>
     <row r="12" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="75"/>
+      <c r="C12" s="77"/>
       <c r="D12" s="6" t="s">
         <v>9</v>
       </c>
@@ -12220,7 +12235,7 @@
       </c>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C13" s="73" t="s">
+      <c r="C13" s="75" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="32" t="s">
@@ -12241,7 +12256,7 @@
       </c>
     </row>
     <row r="14" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C14" s="74"/>
+      <c r="C14" s="76"/>
       <c r="D14" s="33" t="s">
         <v>13</v>
       </c>
@@ -12260,7 +12275,7 @@
       </c>
     </row>
     <row r="15" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="75"/>
+      <c r="C15" s="77"/>
       <c r="D15" s="6" t="s">
         <v>7</v>
       </c>
@@ -12283,7 +12298,7 @@
       </c>
     </row>
     <row r="16" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C16" s="73" t="s">
+      <c r="C16" s="75" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="32" t="s">
@@ -12307,7 +12322,7 @@
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C17" s="74"/>
+      <c r="C17" s="76"/>
       <c r="D17" s="33" t="s">
         <v>13</v>
       </c>
@@ -12326,7 +12341,7 @@
       </c>
     </row>
     <row r="18" spans="3:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="75"/>
+      <c r="C18" s="77"/>
       <c r="D18" s="6" t="s">
         <v>7</v>
       </c>
@@ -12395,7 +12410,7 @@
       </c>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C25" s="73" t="s">
+      <c r="C25" s="75" t="s">
         <v>11</v>
       </c>
       <c r="D25" s="32" t="s">
@@ -12416,7 +12431,7 @@
       </c>
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C26" s="74"/>
+      <c r="C26" s="76"/>
       <c r="D26" s="33" t="s">
         <v>13</v>
       </c>
@@ -12435,7 +12450,7 @@
       </c>
     </row>
     <row r="27" spans="3:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="75"/>
+      <c r="C27" s="77"/>
       <c r="D27" s="6" t="s">
         <v>7</v>
       </c>
@@ -12468,11 +12483,11 @@
         <v>20</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C31" s="73" t="s">
+      <c r="C31" s="75" t="s">
         <v>11</v>
       </c>
       <c r="D31" s="32" t="s">
@@ -12495,7 +12510,7 @@
       </c>
     </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C32" s="74"/>
+      <c r="C32" s="76"/>
       <c r="D32" s="33" t="s">
         <v>13</v>
       </c>
@@ -12515,8 +12530,8 @@
         <v>0.54300000000000004</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="75"/>
+    <row r="33" spans="3:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="77"/>
       <c r="D33" s="6" t="s">
         <v>7</v>
       </c>
@@ -12536,20 +12551,20 @@
         <v>0.51900000000000002</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D36" s="37"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:9" x14ac:dyDescent="0.2">
       <c r="F38" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:9" x14ac:dyDescent="0.2">
       <c r="F39">
         <v>0.55900000000000005</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C40" s="51"/>
       <c r="D40" s="51"/>
       <c r="E40" s="51"/>
@@ -12557,30 +12572,19 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:9" x14ac:dyDescent="0.2">
       <c r="F41" s="69">
         <f>(2*F39*F40)/(F39+F40)</f>
         <v>0.52785646836638334</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B43" s="78"/>
-      <c r="C43" s="79" t="s">
+    <row r="43" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C43" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="D43" s="78"/>
-      <c r="E43" s="78"/>
-      <c r="F43" s="78"/>
-    </row>
-    <row r="44" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="78"/>
-      <c r="C44" s="78"/>
-      <c r="D44" s="78"/>
-      <c r="E44" s="78"/>
-      <c r="F44" s="78"/>
-    </row>
-    <row r="45" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="78"/>
+    </row>
+    <row r="44" spans="3:9" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="3:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E45" s="3" t="s">
         <v>16</v>
       </c>
@@ -12594,9 +12598,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B46" s="78"/>
-      <c r="C46" s="73" t="s">
+    <row r="46" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C46" s="75" t="s">
         <v>11</v>
       </c>
       <c r="D46" s="32" t="s">
@@ -12615,9 +12618,8 @@
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B47" s="78"/>
-      <c r="C47" s="74"/>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C47" s="76"/>
       <c r="D47" s="33" t="s">
         <v>13</v>
       </c>
@@ -12634,9 +12636,8 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="48" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="78"/>
-      <c r="C48" s="75"/>
+    <row r="48" spans="3:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C48" s="77"/>
       <c r="D48" s="6" t="s">
         <v>7</v>
       </c>
@@ -12653,46 +12654,23 @@
         <v>0.51900000000000002</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B49" s="78"/>
-      <c r="C49" s="78"/>
-      <c r="D49" s="78"/>
-      <c r="E49" s="78"/>
-      <c r="F49" s="78"/>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B50" s="78"/>
-      <c r="D50" s="78"/>
-      <c r="E50" s="80">
+    <row r="50" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E50" s="51">
         <f>(((E48+E46)-0.2)*150)-150</f>
         <v>-11.700000000000017</v>
       </c>
-      <c r="F50" s="80">
+      <c r="F50" s="51">
         <f>(((F48+F46)-0.2)*150)-150</f>
         <v>-15.150000000000006</v>
       </c>
-      <c r="G50" s="80">
+      <c r="G50" s="51">
         <f>(((G48+G47)-0.2)*150)-150</f>
         <v>-18.749999999999972</v>
       </c>
-      <c r="H50" s="80">
+      <c r="H50" s="51">
         <f>(((H48+H47)-0.2)*150)-150</f>
         <v>-30.899999999999991</v>
       </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B51" s="78"/>
-      <c r="C51" s="78"/>
-      <c r="D51" s="78"/>
-      <c r="E51" s="78"/>
-      <c r="F51" s="78"/>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B52" s="78"/>
-      <c r="C52" s="78"/>
-      <c r="D52" s="78"/>
-      <c r="E52" s="78"/>
-      <c r="F52" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -12715,8 +12693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B625046-98F8-E84A-B9FE-D1413F988442}">
   <dimension ref="C2:P52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12747,7 +12725,7 @@
       </c>
     </row>
     <row r="4" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="72" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="32" t="s">
@@ -12768,7 +12746,7 @@
       </c>
     </row>
     <row r="5" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C5" s="71"/>
+      <c r="C5" s="73"/>
       <c r="D5" s="33" t="s">
         <v>13</v>
       </c>
@@ -12787,7 +12765,7 @@
       </c>
     </row>
     <row r="6" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="72"/>
+      <c r="C6" s="74"/>
       <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
@@ -12813,7 +12791,7 @@
       </c>
     </row>
     <row r="7" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="75" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="32" t="s">
@@ -12834,7 +12812,7 @@
       </c>
     </row>
     <row r="8" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="74"/>
+      <c r="C8" s="76"/>
       <c r="D8" s="33" t="s">
         <v>13</v>
       </c>
@@ -12857,7 +12835,7 @@
       <c r="P8" s="3"/>
     </row>
     <row r="9" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="75"/>
+      <c r="C9" s="77"/>
       <c r="D9" s="6" t="s">
         <v>7</v>
       </c>
@@ -12879,7 +12857,7 @@
       </c>
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C10" s="73" t="s">
+      <c r="C10" s="75" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -12900,7 +12878,7 @@
       </c>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C11" s="74"/>
+      <c r="C11" s="76"/>
       <c r="D11" s="5" t="s">
         <v>6</v>
       </c>
@@ -12919,7 +12897,7 @@
       </c>
     </row>
     <row r="12" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="75"/>
+      <c r="C12" s="77"/>
       <c r="D12" s="6" t="s">
         <v>9</v>
       </c>
@@ -12938,7 +12916,7 @@
       </c>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C13" s="73" t="s">
+      <c r="C13" s="75" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="32" t="s">
@@ -12959,7 +12937,7 @@
       </c>
     </row>
     <row r="14" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C14" s="74"/>
+      <c r="C14" s="76"/>
       <c r="D14" s="33" t="s">
         <v>13</v>
       </c>
@@ -12978,7 +12956,7 @@
       </c>
     </row>
     <row r="15" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="75"/>
+      <c r="C15" s="77"/>
       <c r="D15" s="6" t="s">
         <v>7</v>
       </c>
@@ -13001,7 +12979,7 @@
       </c>
     </row>
     <row r="16" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C16" s="73" t="s">
+      <c r="C16" s="75" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="32" t="s">
@@ -13025,7 +13003,7 @@
       </c>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C17" s="74"/>
+      <c r="C17" s="76"/>
       <c r="D17" s="33" t="s">
         <v>13</v>
       </c>
@@ -13044,7 +13022,7 @@
       </c>
     </row>
     <row r="18" spans="3:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="75"/>
+      <c r="C18" s="77"/>
       <c r="D18" s="6" t="s">
         <v>7</v>
       </c>
@@ -13115,7 +13093,7 @@
       </c>
     </row>
     <row r="25" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C25" s="73" t="s">
+      <c r="C25" s="75" t="s">
         <v>3</v>
       </c>
       <c r="D25" s="32" t="s">
@@ -13136,7 +13114,7 @@
       </c>
     </row>
     <row r="26" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C26" s="74"/>
+      <c r="C26" s="76"/>
       <c r="D26" s="33" t="s">
         <v>13</v>
       </c>
@@ -13155,7 +13133,7 @@
       </c>
     </row>
     <row r="27" spans="3:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="75"/>
+      <c r="C27" s="77"/>
       <c r="D27" s="6" t="s">
         <v>7</v>
       </c>
@@ -13176,7 +13154,7 @@
     <row r="29" spans="3:10" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="3:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F30" s="4" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="G30" s="34" t="s">
         <v>14</v>
@@ -13192,7 +13170,7 @@
       </c>
     </row>
     <row r="31" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C31" s="73" t="s">
+      <c r="C31" s="75" t="s">
         <v>3</v>
       </c>
       <c r="D31" s="32" t="s">
@@ -13216,7 +13194,7 @@
       </c>
     </row>
     <row r="32" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C32" s="74"/>
+      <c r="C32" s="76"/>
       <c r="D32" s="33" t="s">
         <v>13</v>
       </c>
@@ -13238,7 +13216,7 @@
       </c>
     </row>
     <row r="33" spans="3:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="75"/>
+      <c r="C33" s="77"/>
       <c r="D33" s="6" t="s">
         <v>7</v>
       </c>
@@ -13337,61 +13315,61 @@
       </c>
     </row>
     <row r="47" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C47" s="76"/>
-      <c r="D47" s="76" t="s">
+      <c r="C47" s="70"/>
+      <c r="D47" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="E47" s="76"/>
+      <c r="E47" s="70"/>
     </row>
     <row r="48" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C48" s="76"/>
-      <c r="D48" s="76"/>
-      <c r="E48" s="76"/>
+      <c r="C48" s="70"/>
+      <c r="D48" s="70"/>
+      <c r="E48" s="70"/>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C49" s="77" t="s">
+      <c r="C49" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="D49" s="76">
+      <c r="D49" s="70">
         <v>0.80800000000000005</v>
       </c>
-      <c r="E49" s="76">
+      <c r="E49" s="70">
         <f>(D49*50)-50</f>
         <v>-9.5999999999999943</v>
       </c>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C50" s="77" t="s">
+      <c r="C50" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="D50" s="76">
+      <c r="D50" s="70">
         <v>0.92800000000000005</v>
       </c>
-      <c r="E50" s="76">
+      <c r="E50" s="70">
         <f>(D50*50)-50</f>
         <v>-3.5999999999999943</v>
       </c>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C51" s="77" t="s">
+      <c r="C51" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="D51" s="76">
+      <c r="D51" s="70">
         <v>0.90700000000000003</v>
       </c>
-      <c r="E51" s="76">
+      <c r="E51" s="70">
         <f t="shared" ref="E51:E52" si="4">(D51*50)-50</f>
         <v>-4.6499999999999986</v>
       </c>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C52" s="77" t="s">
+      <c r="C52" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="D52" s="76">
+      <c r="D52" s="70">
         <v>0.9</v>
       </c>
-      <c r="E52" s="76">
+      <c r="E52" s="70">
         <f t="shared" si="4"/>
         <v>-5</v>
       </c>
@@ -13413,23 +13391,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BB0F2E8-881E-A742-907B-008E1FB5F919}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DF3BFBF-1939-D24D-9B02-EE9193637D04}">
   <dimension ref="C2:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13459,7 +13425,7 @@
       </c>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="72" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="32" t="s">
@@ -13479,7 +13445,7 @@
       </c>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C5" s="71"/>
+      <c r="C5" s="73"/>
       <c r="D5" s="33" t="s">
         <v>13</v>
       </c>
@@ -13497,7 +13463,7 @@
       </c>
     </row>
     <row r="6" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="72"/>
+      <c r="C6" s="74"/>
       <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
@@ -13522,7 +13488,7 @@
       </c>
     </row>
     <row r="7" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="75" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="32" t="s">
@@ -13542,7 +13508,7 @@
       </c>
     </row>
     <row r="8" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="74"/>
+      <c r="C8" s="76"/>
       <c r="D8" s="33" t="s">
         <v>13</v>
       </c>
@@ -13564,7 +13530,7 @@
       <c r="O8" s="3"/>
     </row>
     <row r="9" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="75"/>
+      <c r="C9" s="77"/>
       <c r="D9" s="6" t="s">
         <v>7</v>
       </c>
@@ -13585,7 +13551,7 @@
       </c>
     </row>
     <row r="10" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C10" s="73" t="s">
+      <c r="C10" s="75" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -13605,7 +13571,7 @@
       </c>
     </row>
     <row r="11" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C11" s="74"/>
+      <c r="C11" s="76"/>
       <c r="D11" s="5" t="s">
         <v>6</v>
       </c>
@@ -13623,7 +13589,7 @@
       </c>
     </row>
     <row r="12" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="75"/>
+      <c r="C12" s="77"/>
       <c r="D12" s="6" t="s">
         <v>9</v>
       </c>
@@ -13641,7 +13607,7 @@
       </c>
     </row>
     <row r="13" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C13" s="73" t="s">
+      <c r="C13" s="75" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="32" t="s">
@@ -13661,7 +13627,7 @@
       </c>
     </row>
     <row r="14" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C14" s="74"/>
+      <c r="C14" s="76"/>
       <c r="D14" s="33" t="s">
         <v>13</v>
       </c>
@@ -13679,7 +13645,7 @@
       </c>
     </row>
     <row r="15" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="75"/>
+      <c r="C15" s="77"/>
       <c r="D15" s="6" t="s">
         <v>7</v>
       </c>
@@ -13701,7 +13667,7 @@
       </c>
     </row>
     <row r="16" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C16" s="73" t="s">
+      <c r="C16" s="75" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="32" t="s">
@@ -13724,7 +13690,7 @@
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C17" s="74"/>
+      <c r="C17" s="76"/>
       <c r="D17" s="33" t="s">
         <v>13</v>
       </c>
@@ -13742,7 +13708,7 @@
       </c>
     </row>
     <row r="18" spans="3:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="75"/>
+      <c r="C18" s="77"/>
       <c r="D18" s="6" t="s">
         <v>7</v>
       </c>
@@ -13808,7 +13774,7 @@
       </c>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C25" s="73" t="s">
+      <c r="C25" s="75" t="s">
         <v>3</v>
       </c>
       <c r="D25" s="32" t="s">
@@ -13828,7 +13794,7 @@
       </c>
     </row>
     <row r="26" spans="3:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="74"/>
+      <c r="C26" s="76"/>
       <c r="D26" s="33" t="s">
         <v>13</v>
       </c>
@@ -13846,7 +13812,7 @@
       </c>
     </row>
     <row r="27" spans="3:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="75"/>
+      <c r="C27" s="77"/>
       <c r="D27" s="3" t="s">
         <v>10</v>
       </c>
@@ -13875,14 +13841,14 @@
         <v>23</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="I30" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C31" s="73" t="s">
+      <c r="C31" s="75" t="s">
         <v>2</v>
       </c>
       <c r="D31" s="32"/>
@@ -13892,7 +13858,7 @@
       <c r="H31" s="11"/>
     </row>
     <row r="32" spans="3:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="74"/>
+      <c r="C32" s="76"/>
       <c r="D32" s="33"/>
       <c r="E32" s="20"/>
       <c r="F32" s="47"/>
@@ -13900,7 +13866,7 @@
       <c r="H32" s="12"/>
     </row>
     <row r="33" spans="3:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="75"/>
+      <c r="C33" s="77"/>
       <c r="D33" s="3" t="s">
         <v>10</v>
       </c>
@@ -13926,61 +13892,61 @@
       </c>
     </row>
     <row r="39" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="D39" s="76"/>
-      <c r="E39" s="76" t="s">
+      <c r="D39" s="70"/>
+      <c r="E39" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="F39" s="76"/>
+      <c r="F39" s="70"/>
     </row>
     <row r="40" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="D40" s="76"/>
-      <c r="E40" s="76"/>
-      <c r="F40" s="76"/>
+      <c r="D40" s="70"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="70"/>
     </row>
     <row r="41" spans="3:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D41" s="77" t="s">
+      <c r="D41" s="71" t="s">
         <v>19</v>
       </c>
       <c r="E41" s="21">
         <v>0.98</v>
       </c>
-      <c r="F41" s="76">
+      <c r="F41" s="70">
         <f>50-(E41*50)</f>
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="D42" s="77" t="s">
+      <c r="D42" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="76">
+      <c r="E42" s="70">
         <v>0.92800000000000005</v>
       </c>
-      <c r="F42" s="76">
+      <c r="F42" s="70">
         <f t="shared" ref="F42:F44" si="3">50-(E42*50)</f>
         <v>3.5999999999999943</v>
       </c>
     </row>
     <row r="43" spans="3:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D43" s="77" t="s">
+      <c r="D43" s="71" t="s">
         <v>14</v>
       </c>
       <c r="E43" s="22">
         <v>0.97699999999999998</v>
       </c>
-      <c r="F43" s="76">
+      <c r="F43" s="70">
         <f t="shared" si="3"/>
         <v>1.1499999999999986</v>
       </c>
     </row>
     <row r="44" spans="3:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D44" s="77" t="s">
+      <c r="D44" s="71" t="s">
         <v>16</v>
       </c>
       <c r="E44" s="59">
         <v>0.96499999999999997</v>
       </c>
-      <c r="F44" s="76">
+      <c r="F44" s="70">
         <f t="shared" si="3"/>
         <v>1.75</v>
       </c>
@@ -13998,6 +13964,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BB0F2E8-881E-A742-907B-008E1FB5F919}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/other documentation/report_rezultatov_v1.xlsx
+++ b/other documentation/report_rezultatov_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/r.grilj/Documents/GitHub/BMA_roma_MAG/other documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C7BC65-E32D-AE47-9C14-041DD69945E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1AAB6D5-AE5C-7F43-9A05-7D6A6779573A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20320" xr2:uid="{7C5033A3-0CD7-46B1-9957-C1698C274436}"/>
+    <workbookView xWindow="-22020" yWindow="1300" windowWidth="25000" windowHeight="22220" activeTab="1" xr2:uid="{7C5033A3-0CD7-46B1-9957-C1698C274436}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="41">
   <si>
     <t>Sentiment Analaysis</t>
   </si>
@@ -147,6 +147,24 @@
   </si>
   <si>
     <t>Hugging Face Transformers</t>
+  </si>
+  <si>
+    <t>Natančnost</t>
+  </si>
+  <si>
+    <t>Priklic</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Azu</t>
+  </si>
+  <si>
+    <t>AWS</t>
   </si>
 </sst>
 </file>
@@ -577,7 +595,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -711,6 +729,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -9830,7 +9849,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E8C6375-E179-457B-8079-F11912284CFE}">
   <dimension ref="C2:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
@@ -10207,10 +10226,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A4C076D-01EB-3B4E-ADA1-A3FE857A6226}">
-  <dimension ref="C2:P40"/>
+  <dimension ref="C2:P46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10682,7 +10701,7 @@
         <v>0.84045627973358705</v>
       </c>
     </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
         <v>31</v>
       </c>
@@ -10690,7 +10709,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C34" s="70"/>
       <c r="D34" s="70" t="s">
         <v>33</v>
@@ -10705,7 +10724,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C35" s="70"/>
       <c r="D35" s="70"/>
       <c r="E35" s="70">
@@ -10718,7 +10737,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C36" s="71" t="s">
         <v>19</v>
       </c>
@@ -10743,7 +10762,7 @@
         <v>2.3149999999999977</v>
       </c>
     </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C37" s="71" t="s">
         <v>4</v>
       </c>
@@ -10768,7 +10787,7 @@
         <v>3.8499999999999943</v>
       </c>
     </row>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C38" s="71" t="s">
         <v>14</v>
       </c>
@@ -10793,7 +10812,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C39" s="71" t="s">
         <v>16</v>
       </c>
@@ -10818,9 +10837,95 @@
         <v>7.1099999999999994</v>
       </c>
     </row>
-    <row r="40" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:9" x14ac:dyDescent="0.2">
       <c r="G40" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C41" s="79" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C42">
+        <v>95.4</v>
+      </c>
+      <c r="G42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C43">
+        <v>92.3</v>
+      </c>
+      <c r="D43">
+        <f>C42-C43</f>
+        <v>3.1000000000000085</v>
+      </c>
+      <c r="E43">
+        <f>C42-C45</f>
+        <v>9.6000000000000085</v>
+      </c>
+      <c r="F43" t="s">
+        <v>40</v>
+      </c>
+      <c r="G43">
+        <v>96.1</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C44">
+        <v>92.2</v>
+      </c>
+      <c r="D44">
+        <f>C43-C44</f>
+        <v>9.9999999999994316E-2</v>
+      </c>
+      <c r="F44" t="s">
+        <v>37</v>
+      </c>
+      <c r="G44">
+        <v>91.9</v>
+      </c>
+      <c r="H44">
+        <f>G43-G44</f>
+        <v>4.1999999999999886</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C45">
+        <v>85.8</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ref="D44:D45" si="3">C44-C45</f>
+        <v>6.4000000000000057</v>
+      </c>
+      <c r="F45" t="s">
+        <v>38</v>
+      </c>
+      <c r="G45">
+        <v>91.9</v>
+      </c>
+      <c r="H45">
+        <f t="shared" ref="H45:H46" si="4">G44-G45</f>
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <f>G43-G46</f>
+        <v>13.699999999999989</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F46" t="s">
+        <v>39</v>
+      </c>
+      <c r="G46">
+        <v>82.4</v>
+      </c>
+      <c r="H46">
+        <f>G45-G46</f>
+        <v>9.5</v>
       </c>
     </row>
   </sheetData>

--- a/other documentation/report_rezultatov_v1.xlsx
+++ b/other documentation/report_rezultatov_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/r.grilj/Documents/GitHub/BMA_roma_MAG/other documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1AAB6D5-AE5C-7F43-9A05-7D6A6779573A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14184C66-EB3A-D646-9639-426A5BC199F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22020" yWindow="1300" windowWidth="25000" windowHeight="22220" activeTab="1" xr2:uid="{7C5033A3-0CD7-46B1-9957-C1698C274436}"/>
+    <workbookView xWindow="2960" yWindow="3580" windowWidth="34560" windowHeight="20320" activeTab="1" xr2:uid="{7C5033A3-0CD7-46B1-9957-C1698C274436}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -10226,10 +10226,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A4C076D-01EB-3B4E-ADA1-A3FE857A6226}">
-  <dimension ref="C2:P46"/>
+  <dimension ref="C2:P54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10926,6 +10926,42 @@
       <c r="H46">
         <f>G45-G46</f>
         <v>9.5</v>
+      </c>
+    </row>
+    <row r="51" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D51">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D52">
+        <v>97.7</v>
+      </c>
+      <c r="E52">
+        <f>D51-D52</f>
+        <v>0.29999999999999716</v>
+      </c>
+    </row>
+    <row r="53" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D53">
+        <v>96.5</v>
+      </c>
+      <c r="E53">
+        <f t="shared" ref="E53:E54" si="5">D52-D53</f>
+        <v>1.2000000000000028</v>
+      </c>
+      <c r="F53">
+        <f>D51-D54</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D54">
+        <v>94</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="5"/>
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>
